--- a/src/test/resources/Excel Files/Question Prepared For Testing.xlsx
+++ b/src/test/resources/Excel Files/Question Prepared For Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3.Automation\3. Web Automation\Eclipse Local Workspace\ESGChatbotUtili\src\test\resources\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT Workspace\ESGChatbotUtil\src\test\resources\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFB5156-E3A0-4373-8E7A-5FBE0CDF4A13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1D622E-48B3-43A1-805B-038F92229488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions_as of 01-05-2024" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="221">
   <si>
     <t>S. No.</t>
   </si>
@@ -568,6 +568,219 @@
 Aegon Ltd</t>
     </r>
   </si>
+  <si>
+    <t>Does Onex Corporation have an ongoing target to reduce carbon emissions? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>Does AIA Group Limited have an ongoing target to reduce carbon emissions? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>Which are the 3 top sub industries with the most aggressive efforts to use clean sources of energy? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>How many of the companies in our universe have listed climate change as a business risk factor in their mainstream financial reporting? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>Number of companies that include climate change as a risk factor in their financial statements as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>Is the Bank of Baroda involved in green bonds? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>Is JP Morgan Chase involved in green bonds? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>Is BNP Paribas involved in green bonds? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>Which country has the most companies with some sort of credit policy related to biodiversity? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>What is the most common strategy of Apparel, Accessories &amp; Luxury Goods companies with regards to the extent of carbon reduction programs in manufacturing operations? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>Does Coca Cola assess the carbon emissions or energy consumption of its manufacturing operations, including suppliers' operations? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>Is any Canadian company has already calculated the carbon footprint of its core products and production stages? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>What % of Canadian companies are planning to expand its product footprint calculation to include all core products or include other stages (upstream Scope 3)? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>What is the most common level of commintment from companies with some sort of Green Building commitment? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>In which market is it more common for companies to use of green or triple net leases? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>Do any companies in New Zealand offer customers a green power option? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>In what country is it more common for companies to have policies on sustainable management of natural resources and raw materials? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>If a company has some sort of cotton sustainable certification, what is the typical % or estimated share of cotton externally certified? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>Do any companies in Malaysia have any sort of external palm oil sustainable certification? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>Do any companies in Indonesia have any sort of external sustainable seafood certification? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>What is the correlation between Apple's market cap and its MSCI ESG rating for the past 3 years? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>What is the correlation between Apple's EBIT and its MSCI ESG rating for the past 3 years? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the correlation between the EBIT and the MSCI ESG ratings of Application Software companies in the US since January 2021? as of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the correlation between the Market cap and the MSCI ESG ratings of Application Software companies in the US since January 2021? as of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the correlation between the EBIT and the MSCI ESG ratings of companies in the Information Technology sector (as defined by GICS) in the US since January 2021? as of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the correlation between the Market Cap and the MSCI ESG ratings of companies in the Information Technology sector (as defined by GICS) in the US since January 2021? as of </t>
+  </si>
+  <si>
+    <t>Which company in Germany has the highest correlation between its Market Cap and its MSCI ESG score? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>Which company in Germany has the lowest correlation between its EBIT and its MSCI ESG score? as of 01-05-2024</t>
+  </si>
+  <si>
+    <t>Are Apple's Scope 1 emissions higher than its global peers? as of 01-06-2024</t>
+  </si>
+  <si>
+    <t>Are Apple's Scope 1 emissions higher than its peers in the US? as of 01-06-2024</t>
+  </si>
+  <si>
+    <t>Do diversified banks in Canada have better shareholder rights protection than its peers in the US? as of 01-06-2024</t>
+  </si>
+  <si>
+    <t>Does CK Hutchison Holdings have a higher than average Scope 1 and 2 carbon intensity normalized by Sales than its country peers? If so by how much? as of 01-06-2024</t>
+  </si>
+  <si>
+    <t>Does CK Hutchison Holdings have a LOWER than average Scope 1 and 2 carbon intensity normalized by EVIC than its global peers? If so how much LOWER? as of 01-06-2024</t>
+  </si>
+  <si>
+    <t>Does Exxon Mobil score better Chevron in terms of Water Management? as of 01-06-2024</t>
+  </si>
+  <si>
+    <t>Is human rights and community relations a material factor for Mining companies? And if so which are best 3? as of 01-06-2024</t>
+  </si>
+  <si>
+    <t>Is water management a material factor for Aerospace &amp; Defense companies? And if so which are best 3? as of 01-06-2024</t>
+  </si>
+  <si>
+    <t>What are the best 5 Regional Banks in the US in terms of compensation? as of 01-06-2024</t>
+  </si>
+  <si>
+    <t>What is the average Scope 1 and 2 emissions intensity for Fertilizer companies in India ? as of 01-06-2024</t>
+  </si>
+  <si>
+    <t>What is the best Governance factor at ABBVIE? as of 01-06-2024</t>
+  </si>
+  <si>
+    <t>What is the worst Governance factor at Palo Alto Networks? as of 01-06-2024</t>
+  </si>
+  <si>
+    <t>What were Singapore Telecommunications GHG emissions? as of 01-06-2024</t>
+  </si>
+  <si>
+    <t>Who scores better in data security and customer privacy, Canadian or US diversified banks? as of 01-06-2024</t>
+  </si>
+  <si>
+    <t>Are there any companies in my portfolios with no ESG rating? as of 30-06-2024</t>
+  </si>
+  <si>
+    <t>Does Fund 4 have any CCC or B rated companies? as of 30-06-2024</t>
+  </si>
+  <si>
+    <t>Do any of my portfolios have any CCC rated companies? as of 30-06-2024</t>
+  </si>
+  <si>
+    <t>To what Industry does Fund 1 have the highest exposure to? as of 30-06-2024</t>
+  </si>
+  <si>
+    <t>What's the average S score in Fund 3? as of 30-06-2024</t>
+  </si>
+  <si>
+    <t>What % of Fund 2 holding companies are assessed as "Aligning" under the Paris Aligned Investment Initiative (PAII)’s Net Zero Investment Framework (NZIF)? as of 08-07-2024</t>
+  </si>
+  <si>
+    <t>What % of Fund 3 assets are assessed as "Not Aligned" under the Paris Aligned Investment Initiative (PAII)’s Net Zero Investment Framework (NZIF)? as of 08-07-2024</t>
+  </si>
+  <si>
+    <t>Which Fund has a higher % of assets invested in companies deemed as "Higher Impact" by the PAII's NZIF? as of 08-07-2024</t>
+  </si>
+  <si>
+    <t>How many companies in Fund 4 are both considered "Higher Impact" and "Not Aligned"? as of 08-07-2024</t>
+  </si>
+  <si>
+    <t>Which Fund has a LOWER % of assets invested in companies both deemed as "Higher Impact" and "Aligned"? as of 08-07-2024</t>
+  </si>
+  <si>
+    <t>Has the number of shares held by the CEOs, of any of the companies held in Fund 1, decreased year over year by 10% or more? as of 08-07-2024</t>
+  </si>
+  <si>
+    <t>Does the CEO of HITACHI LTD hold shares with a value below 5x salary and has the company failed to adopt either effective stock ownership guidelines or an equity retention policy for the CEO?  as of 08-07-2024</t>
+  </si>
+  <si>
+    <t>Is the pension contribution rate made by the company on behalf of the CEO of Walmart excessive relative to peers? as of 08-07-2024</t>
+  </si>
+  <si>
+    <t>Is the pension contribution rate made by the company on behalf of the CEO of Astrazeneca excessive relative to peers? as of 08-07-2024</t>
+  </si>
+  <si>
+    <t>Does the total awarded CEO pay figure for BAWAG Group fall into an extreme range relative to the company’s peers? as of 08-07-2024</t>
+  </si>
+  <si>
+    <t>I'm concerned about Air Quality as a factor, I want to engage the worst rated companies in each of the subindustries where Air Quality is highly material (Tier 1). Please give me the list of companies in each subindustry. What are the companies? as of 2024-06-30</t>
+  </si>
+  <si>
+    <t>Do we currently own any of those companies? as of 2024-06-30</t>
+  </si>
+  <si>
+    <t>In which funds do we hold the company? as of 2024-06-30</t>
+  </si>
+  <si>
+    <t>How much of that company do we hold in that fund? as of 2024-06-30</t>
+  </si>
+  <si>
+    <t>What Subindustries have the most material Social factors? Including all Tiers (1, 2, and 3) as of 2024-06-30</t>
+  </si>
+  <si>
+    <t>What is my current exposure (companies) in those Subindustries? as of 2024-06-30</t>
+  </si>
+  <si>
+    <t>Do those companies perform better than average than their peers in their Tier 1 Social factors? as of 2024-06-30</t>
+  </si>
+  <si>
+    <t>Do any of my holdings in Fund 4 have a medium (Tier 2) materiality to GHG Emissions? With company names? as of 2024-06-30</t>
+  </si>
+  <si>
+    <t>We're seeing increased coverage of French media on Human Rights violations by French companies overseas. Do any of my current holdings have a High (Tier 1) materiality to Human Rights issues? If so, which companies? as of 2024-06-30</t>
+  </si>
+  <si>
+    <t>New regulations around Data Privacy and Cybersecurity are being proposed in the Germany. Which of my company positions would have an expected High impact (tier 1) according to my materiality map? So, Which  companies? as of 2024-06-30</t>
+  </si>
+  <si>
+    <t>What are the subindustries of those companies? as of 2024-06-30</t>
+  </si>
+  <si>
+    <t>What are their respective scores in terms of Data Security &amp; Customer Privacy? as of 2024-06-30</t>
+  </si>
+  <si>
+    <t>Do they perform better than their COUNTRY peers? as of 2024-06-30</t>
+  </si>
+  <si>
+    <t>Do they perform better than their GLOBAL peers? as of 2024-06-30</t>
+  </si>
 </sst>
 </file>
 
@@ -576,7 +789,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,6 +865,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -673,7 +893,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -696,42 +916,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -785,9 +977,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -802,6 +991,17 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,1756 +1337,2411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE15F97-0A2F-4CFE-B93B-4EEA7112F27C}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.8984375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="48.296875" customWidth="1"/>
-    <col min="4" max="4" width="17" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.59765625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.8984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.25" customWidth="1"/>
+    <col min="4" max="4" width="17" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
-      <c r="A2" s="24">
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="11">
         <v>89</v>
       </c>
-      <c r="D2" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" ht="28.8">
-      <c r="A3" s="24">
+      <c r="D2" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="30">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" ht="28.8">
-      <c r="A4" s="24">
+      <c r="D3" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" ht="28.8">
-      <c r="A5" s="24">
+      <c r="D4" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.4">
-      <c r="A6" s="24">
+      <c r="D5" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="15">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" ht="28.8">
-      <c r="A7" s="24">
+      <c r="D6" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" ht="43.2">
-      <c r="A8" s="24">
+      <c r="D7" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="11">
         <v>180</v>
       </c>
-      <c r="D8" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" ht="43.2">
-      <c r="A9" s="24">
+      <c r="D8" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="60">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" ht="28.8">
-      <c r="A10" s="24">
+      <c r="D9" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" ht="28.8">
-      <c r="A11" s="24">
+      <c r="D10" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="30">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="11">
         <v>8.5</v>
       </c>
-      <c r="D11" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.4">
-      <c r="A12" s="24">
+      <c r="D11" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="15">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="11">
         <v>855</v>
       </c>
-      <c r="D12" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" ht="28.8">
-      <c r="A13" s="24">
+      <c r="D12" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="28.8">
-      <c r="A14" s="24">
+      <c r="D13" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" ht="28.8">
-      <c r="A15" s="24">
+      <c r="D14" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="15">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.4">
-      <c r="A16" s="24">
+      <c r="D15" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" ht="57.6">
-      <c r="A17" s="24">
+      <c r="D16" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="60">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" ht="28.8">
-      <c r="A18" s="24">
+      <c r="D17" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="30">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="1:7" ht="28.8">
-      <c r="A19" s="24">
+      <c r="D18" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" ht="43.2">
-      <c r="A20" s="24">
+      <c r="D19" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="30">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" ht="28.8">
-      <c r="A21" s="24">
+      <c r="D20" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="30">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" ht="28.8">
-      <c r="A22" s="24">
+      <c r="D21" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="30">
+      <c r="A22" s="19">
         <v>21</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="1:7" ht="43.2">
-      <c r="A23" s="24">
+      <c r="D22" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" ht="45">
+      <c r="A23" s="19">
         <v>22</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:7" ht="28.8">
-      <c r="A24" s="24">
+      <c r="D23" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" ht="30">
+      <c r="A24" s="19">
         <v>23</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:7" ht="43.2">
-      <c r="A25" s="24">
+      <c r="D24" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" ht="30">
+      <c r="A25" s="19">
         <v>24</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:7" ht="409.6">
-      <c r="A26" s="24">
+      <c r="D25" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" ht="409.5">
+      <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:7" ht="28.8">
-      <c r="A27" s="24">
+      <c r="D26" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" ht="30">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="1:7" ht="28.8">
-      <c r="A28" s="24">
+      <c r="D27" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" ht="30">
+      <c r="A28" s="19">
         <v>27</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="1:7" ht="28.8">
-      <c r="A29" s="24">
+      <c r="D28" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" ht="30">
+      <c r="A29" s="19">
         <v>28</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" ht="28.8">
-      <c r="A30" s="24">
+      <c r="D29" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" ht="30">
+      <c r="A30" s="19">
         <v>29</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="1:7" ht="43.2">
-      <c r="A31" s="24">
+      <c r="D30" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" ht="45">
+      <c r="A31" s="19">
         <v>30</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="1:7" ht="28.8">
-      <c r="A32" s="24">
+      <c r="D31" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" ht="30">
+      <c r="A32" s="19">
         <v>31</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" ht="28.8">
-      <c r="A33" s="24">
+      <c r="D32" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" ht="30">
+      <c r="A33" s="19">
         <v>32</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="1:7" ht="28.8">
-      <c r="A34" s="24">
+      <c r="D33" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" ht="30">
+      <c r="A34" s="19">
         <v>33</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="16"/>
-    </row>
-    <row r="35" spans="1:7" ht="28.8">
-      <c r="A35" s="24">
+      <c r="D34" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" ht="30">
+      <c r="A35" s="19">
         <v>34</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="16"/>
-    </row>
-    <row r="36" spans="1:7" ht="28.8">
-      <c r="A36" s="24">
+      <c r="D35" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" ht="30">
+      <c r="A36" s="19">
         <v>35</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="16"/>
-    </row>
-    <row r="37" spans="1:7" ht="28.8">
-      <c r="A37" s="24">
+      <c r="D36" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" ht="30">
+      <c r="A37" s="19">
         <v>36</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="38" spans="1:7" ht="28.8">
-      <c r="A38" s="24">
+      <c r="D37" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" ht="15">
+      <c r="A38" s="19">
         <v>37</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="16"/>
-    </row>
-    <row r="39" spans="1:7" ht="28.8">
-      <c r="A39" s="24">
+      <c r="D38" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" ht="15">
+      <c r="A39" s="19">
         <v>38</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="16"/>
-    </row>
-    <row r="40" spans="1:7" ht="28.8">
-      <c r="A40" s="24">
+      <c r="D39" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" ht="30">
+      <c r="A40" s="19">
         <v>39</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="16"/>
-    </row>
-    <row r="41" spans="1:7" ht="288">
-      <c r="A41" s="24">
+      <c r="D40" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" ht="300">
+      <c r="A41" s="19">
         <v>40</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="16"/>
-    </row>
-    <row r="42" spans="1:7" ht="28.8">
-      <c r="A42" s="24">
+      <c r="D41" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" ht="30">
+      <c r="A42" s="19">
         <v>41</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="16"/>
-    </row>
-    <row r="43" spans="1:7" ht="43.2">
-      <c r="A43" s="24">
+      <c r="D42" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" ht="30">
+      <c r="A43" s="19">
         <v>42</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="16"/>
-    </row>
-    <row r="44" spans="1:7" ht="28.8">
-      <c r="A44" s="24">
+      <c r="D43" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:7" ht="30">
+      <c r="A44" s="19">
         <v>43</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="16"/>
-    </row>
-    <row r="45" spans="1:7" ht="28.8">
-      <c r="A45" s="24">
+      <c r="D44" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" ht="30">
+      <c r="A45" s="19">
         <v>44</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="16"/>
-    </row>
-    <row r="46" spans="1:7" ht="28.8">
-      <c r="A46" s="24">
+      <c r="D45" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" ht="30">
+      <c r="A46" s="19">
         <v>45</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="16"/>
-    </row>
-    <row r="47" spans="1:7" ht="28.8">
-      <c r="A47" s="24">
+      <c r="D46" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" ht="30">
+      <c r="A47" s="19">
         <v>46</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E47" s="28"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="16"/>
-    </row>
-    <row r="48" spans="1:7" ht="72">
-      <c r="A48" s="24">
+      <c r="D47" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7" ht="75">
+      <c r="A48" s="19">
         <v>47</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E48" s="28"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="16"/>
-    </row>
-    <row r="49" spans="1:7" ht="28.8">
-      <c r="A49" s="24">
+      <c r="D48" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" ht="30">
+      <c r="A49" s="19">
         <v>48</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="16"/>
-    </row>
-    <row r="50" spans="1:7" ht="28.8">
-      <c r="A50" s="24">
+      <c r="D49" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7" ht="30">
+      <c r="A50" s="19">
         <v>49</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E50" s="28"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="16"/>
-    </row>
-    <row r="51" spans="1:7" ht="43.2">
-      <c r="A51" s="24">
+      <c r="D50" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E50" s="22"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" ht="30">
+      <c r="A51" s="19">
         <v>50</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="11">
         <v>7</v>
       </c>
-      <c r="D51" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E51" s="28"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="16"/>
-    </row>
-    <row r="52" spans="1:7" ht="28.8">
-      <c r="A52" s="24">
+      <c r="D51" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E51" s="22"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" ht="30">
+      <c r="A52" s="19">
         <v>51</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="16"/>
-    </row>
-    <row r="53" spans="1:7" ht="28.8">
-      <c r="A53" s="24">
+      <c r="D52" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" ht="30">
+      <c r="A53" s="19">
         <v>52</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D53" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E53" s="28"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="16"/>
-    </row>
-    <row r="54" spans="1:7" ht="28.8">
-      <c r="A54" s="24">
+      <c r="D53" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" ht="30">
+      <c r="A54" s="19">
         <v>53</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D54" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E54" s="28"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="16"/>
-    </row>
-    <row r="55" spans="1:7" ht="43.2">
-      <c r="A55" s="24">
+      <c r="D54" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" ht="45">
+      <c r="A55" s="19">
         <v>54</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E55" s="28"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="16"/>
-    </row>
-    <row r="56" spans="1:7" ht="28.8">
-      <c r="A56" s="24">
+      <c r="D55" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E55" s="22"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" ht="30">
+      <c r="A56" s="19">
         <v>55</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E56" s="28"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="16"/>
-    </row>
-    <row r="57" spans="1:7" ht="43.2">
-      <c r="A57" s="24">
+      <c r="D56" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E56" s="22"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" ht="45">
+      <c r="A57" s="19">
         <v>56</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D57" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E57" s="28"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="16"/>
-    </row>
-    <row r="58" spans="1:7" ht="28.8">
-      <c r="A58" s="24">
+      <c r="D57" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E57" s="22"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" ht="30">
+      <c r="A58" s="19">
         <v>57</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D58" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="16"/>
-    </row>
-    <row r="59" spans="1:7" ht="28.8">
-      <c r="A59" s="24">
+      <c r="D58" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E58" s="22"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" ht="45">
+      <c r="A59" s="19">
         <v>58</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D59" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="16"/>
-    </row>
-    <row r="60" spans="1:7" ht="28.8">
-      <c r="A60" s="24">
+      <c r="D59" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E59" s="22"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:7" ht="30">
+      <c r="A60" s="19">
         <v>59</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E60" s="28"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="16"/>
-    </row>
-    <row r="61" spans="1:7" ht="28.8">
-      <c r="A61" s="24">
+      <c r="D60" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E60" s="22"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="1:7" ht="30">
+      <c r="A61" s="19">
         <v>60</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E61" s="28"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="16"/>
-    </row>
-    <row r="62" spans="1:7" ht="28.8">
-      <c r="A62" s="24">
+      <c r="D61" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E61" s="22"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="1:7" ht="30">
+      <c r="A62" s="19">
         <v>61</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D62" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E62" s="28"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="16"/>
-    </row>
-    <row r="63" spans="1:7" ht="43.2">
-      <c r="A63" s="24">
+      <c r="D62" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E62" s="22"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" ht="30">
+      <c r="A63" s="19">
         <v>62</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E63" s="28"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="16"/>
-    </row>
-    <row r="64" spans="1:7" ht="57.6">
-      <c r="A64" s="24">
+      <c r="D63" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E63" s="22"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" ht="45">
+      <c r="A64" s="19">
         <v>63</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D64" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E64" s="28"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="16"/>
-    </row>
-    <row r="65" spans="1:7" ht="28.8">
-      <c r="A65" s="24">
+      <c r="D64" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E64" s="22"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="1:7" ht="30">
+      <c r="A65" s="19">
         <v>64</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D65" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E65" s="28"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="16"/>
-    </row>
-    <row r="66" spans="1:7" ht="43.2">
-      <c r="A66" s="24">
+      <c r="D65" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E65" s="22"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7" ht="30">
+      <c r="A66" s="19">
         <v>65</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D66" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E66" s="28"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="16"/>
-    </row>
-    <row r="67" spans="1:7" ht="43.2">
-      <c r="A67" s="24">
+      <c r="D66" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E66" s="22"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:7" ht="30">
+      <c r="A67" s="19">
         <v>66</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E67" s="28"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="16"/>
-    </row>
-    <row r="68" spans="1:7" ht="57.6">
-      <c r="A68" s="24">
+      <c r="D67" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E67" s="22"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:7" ht="45">
+      <c r="A68" s="19">
         <v>67</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D68" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E68" s="28"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="16"/>
-    </row>
-    <row r="69" spans="1:7" ht="43.2">
-      <c r="A69" s="24">
+      <c r="D68" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E68" s="22"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:7" ht="30">
+      <c r="A69" s="19">
         <v>68</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D69" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E69" s="28"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="16"/>
-    </row>
-    <row r="70" spans="1:7" ht="28.8">
-      <c r="A70" s="24">
+      <c r="D69" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E69" s="22"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="1:7" ht="30">
+      <c r="A70" s="19">
         <v>69</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D70" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E70" s="28"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="16"/>
-    </row>
-    <row r="71" spans="1:7" ht="28.8">
-      <c r="A71" s="24">
+      <c r="D70" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E70" s="22"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:7" ht="30">
+      <c r="A71" s="19">
         <v>70</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E71" s="28"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="16"/>
-    </row>
-    <row r="72" spans="1:7" ht="28.8">
-      <c r="A72" s="24">
+      <c r="D71" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E71" s="22"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="11"/>
+    </row>
+    <row r="72" spans="1:7" ht="30">
+      <c r="A72" s="19">
         <v>71</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D72" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E72" s="28"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="16"/>
-    </row>
-    <row r="73" spans="1:7" ht="28.8">
-      <c r="A73" s="24">
+      <c r="D72" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E72" s="22"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" spans="1:7" ht="30">
+      <c r="A73" s="19">
         <v>72</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D73" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E73" s="28"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="16"/>
-    </row>
-    <row r="74" spans="1:7" ht="28.8">
-      <c r="A74" s="24">
+      <c r="D73" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E73" s="22"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="11"/>
+    </row>
+    <row r="74" spans="1:7" ht="30">
+      <c r="A74" s="19">
         <v>73</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D74" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E74" s="28"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="16"/>
-    </row>
-    <row r="75" spans="1:7" ht="28.8">
-      <c r="A75" s="24">
+      <c r="D74" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E74" s="22"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="1:7" ht="30">
+      <c r="A75" s="19">
         <v>74</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D75" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E75" s="28"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="16"/>
-    </row>
-    <row r="76" spans="1:7" ht="28.8">
-      <c r="A76" s="24">
+      <c r="D75" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E75" s="22"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="11"/>
+    </row>
+    <row r="76" spans="1:7" ht="30">
+      <c r="A76" s="19">
         <v>75</v>
       </c>
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D76" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E76" s="28"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="16"/>
-    </row>
-    <row r="77" spans="1:7" ht="43.2">
-      <c r="A77" s="24">
+      <c r="D76" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E76" s="22"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="11"/>
+    </row>
+    <row r="77" spans="1:7" ht="45">
+      <c r="A77" s="19">
         <v>76</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D77" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E77" s="28"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="16"/>
-    </row>
-    <row r="78" spans="1:7" ht="28.8">
-      <c r="A78" s="24">
+      <c r="D77" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E77" s="22"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="11"/>
+    </row>
+    <row r="78" spans="1:7" ht="30">
+      <c r="A78" s="19">
         <v>77</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E78" s="28"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="16"/>
-    </row>
-    <row r="79" spans="1:7" ht="28.8">
-      <c r="A79" s="24">
+      <c r="D78" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E78" s="22"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="11"/>
+    </row>
+    <row r="79" spans="1:7" ht="30">
+      <c r="A79" s="19">
         <v>78</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D79" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E79" s="28"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="16"/>
-    </row>
-    <row r="80" spans="1:7" ht="28.8">
-      <c r="A80" s="24">
+      <c r="D79" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E79" s="22"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="11"/>
+    </row>
+    <row r="80" spans="1:7" ht="30">
+      <c r="A80" s="19">
         <v>79</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D80" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E80" s="28"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="16"/>
-    </row>
-    <row r="81" spans="1:7" ht="43.2">
-      <c r="A81" s="24">
+      <c r="D80" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E80" s="22"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" spans="1:7" ht="30">
+      <c r="A81" s="19">
         <v>80</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D81" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E81" s="28"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="16"/>
-    </row>
-    <row r="82" spans="1:7" ht="28.8">
-      <c r="A82" s="24">
+      <c r="D81" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E81" s="22"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="11"/>
+    </row>
+    <row r="82" spans="1:7" ht="15">
+      <c r="A82" s="19">
         <v>81</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E82" s="28"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="16"/>
-    </row>
-    <row r="83" spans="1:7" ht="14.4">
-      <c r="A83" s="24">
+      <c r="D82" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E82" s="22"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="1:7" ht="15">
+      <c r="A83" s="19">
         <v>82</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="16"/>
-      <c r="D83" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E83" s="28"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="16"/>
-    </row>
-    <row r="84" spans="1:7" ht="43.2">
-      <c r="A84" s="24">
+      <c r="C83" s="11"/>
+      <c r="D83" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E83" s="22"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="11"/>
+    </row>
+    <row r="84" spans="1:7" ht="30">
+      <c r="A84" s="19">
         <v>83</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D84" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E84" s="28"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="16"/>
-    </row>
-    <row r="85" spans="1:7" ht="28.8">
-      <c r="A85" s="24">
+      <c r="D84" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E84" s="22"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="11"/>
+    </row>
+    <row r="85" spans="1:7" ht="30">
+      <c r="A85" s="19">
         <v>84</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E85" s="28"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="16"/>
-    </row>
-    <row r="86" spans="1:7" ht="28.8">
-      <c r="A86" s="24">
+      <c r="D85" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E85" s="22"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="11"/>
+    </row>
+    <row r="86" spans="1:7" ht="30">
+      <c r="A86" s="19">
         <v>85</v>
       </c>
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D86" s="14">
-        <v>45635</v>
-      </c>
-      <c r="E86" s="28"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="16"/>
-    </row>
-    <row r="87" spans="1:7" ht="14.4">
-      <c r="A87" s="1"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="3"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="1:7" ht="14.4">
-      <c r="A88" s="1"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="3"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" ht="14.4">
-      <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="3"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" ht="14.4">
-      <c r="A90" s="1"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="3"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" ht="14.4">
-      <c r="A91" s="1"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="3"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" ht="14.4">
-      <c r="A92" s="1"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="3"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" ht="14.4">
-      <c r="A93" s="1"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="3"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" ht="14.4">
-      <c r="A94" s="1"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="3"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="1:7" ht="14.4">
-      <c r="A95" s="1"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="3"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:7" ht="14.4">
-      <c r="A96" s="1"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="3"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="1:7" ht="14.4">
-      <c r="A97" s="1"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="3"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="1:7" ht="14.4">
-      <c r="A98" s="1"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="3"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="1:7" ht="14.4">
-      <c r="A99" s="1"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="3"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="1:7" ht="14.4">
-      <c r="A100" s="1"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="3"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="1:7" ht="14.4">
-      <c r="A101" s="1"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="3"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="1:7" ht="14.4">
-      <c r="A102" s="1"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="3"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="1:7" ht="14.4">
-      <c r="A103" s="1"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="3"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="2"/>
-    </row>
-    <row r="104" spans="1:7" ht="14.4">
-      <c r="A104" s="1"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="3"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="2"/>
-    </row>
-    <row r="105" spans="1:7" ht="14.4">
-      <c r="A105" s="1"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="3"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="2"/>
-    </row>
-    <row r="106" spans="1:7" ht="14.4">
-      <c r="A106" s="1"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="3"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="1:7" ht="14.4">
-      <c r="A107" s="1"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="3"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="1:7" ht="14.4">
-      <c r="A108" s="1"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="3"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="1:7" ht="14.4">
-      <c r="A109" s="1"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="3"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="1:7" ht="14.4">
-      <c r="A110" s="1"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="3"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="1:7" ht="14.4">
-      <c r="A111" s="1"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="3"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="1:7" ht="14.4">
-      <c r="A112" s="1"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="3"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="2"/>
-    </row>
-    <row r="113" spans="1:7" ht="14.4">
-      <c r="A113" s="1"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="3"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="2"/>
-    </row>
-    <row r="114" spans="1:7" ht="14.4">
-      <c r="A114" s="1"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="3"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="2"/>
-    </row>
-    <row r="115" spans="1:7" ht="14.4">
-      <c r="A115" s="1"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="3"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="1:7" ht="14.4">
-      <c r="A116" s="1"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="3"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="2"/>
-    </row>
-    <row r="117" spans="1:7" ht="14.4">
-      <c r="A117" s="1"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="3"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="2"/>
-    </row>
-    <row r="118" spans="1:7" ht="14.4">
-      <c r="A118" s="1"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="3"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="2"/>
-    </row>
-    <row r="119" spans="1:7" ht="14.4">
-      <c r="F119" s="5"/>
-      <c r="G119" s="2"/>
-    </row>
-    <row r="120" spans="1:7" ht="14.4">
-      <c r="F120" s="5"/>
-      <c r="G120" s="2"/>
-    </row>
-    <row r="121" spans="1:7" ht="14.4">
-      <c r="F121" s="5"/>
-      <c r="G121" s="2"/>
+      <c r="D86" s="9">
+        <v>45635</v>
+      </c>
+      <c r="E86" s="22"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="11"/>
+    </row>
+    <row r="87" spans="1:7" ht="15">
+      <c r="A87" s="19">
+        <v>86</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="11"/>
+    </row>
+    <row r="88" spans="1:7" ht="15">
+      <c r="A88" s="19">
+        <v>87</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" s="26"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="11"/>
+    </row>
+    <row r="89" spans="1:7" ht="30">
+      <c r="A89" s="19">
+        <v>88</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89" s="26"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="11"/>
+    </row>
+    <row r="90" spans="1:7" ht="30">
+      <c r="A90" s="19">
+        <v>89</v>
+      </c>
+      <c r="B90" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" s="26"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="1:7" ht="30">
+      <c r="A91" s="19">
+        <v>90</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" s="26"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="26"/>
+    </row>
+    <row r="92" spans="1:7" ht="15">
+      <c r="A92" s="19">
+        <v>91</v>
+      </c>
+      <c r="B92" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C92" s="26"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="26"/>
+    </row>
+    <row r="93" spans="1:7" ht="15">
+      <c r="A93" s="19">
+        <v>92</v>
+      </c>
+      <c r="B93" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="26"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="26"/>
+    </row>
+    <row r="94" spans="1:7" ht="15">
+      <c r="A94" s="19">
+        <v>93</v>
+      </c>
+      <c r="B94" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="26"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="26"/>
+    </row>
+    <row r="95" spans="1:7" ht="30">
+      <c r="A95" s="19">
+        <v>94</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" s="26"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="26"/>
+    </row>
+    <row r="96" spans="1:7" ht="30">
+      <c r="A96" s="19">
+        <v>95</v>
+      </c>
+      <c r="B96" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C96" s="26"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="26"/>
+    </row>
+    <row r="97" spans="1:7" ht="30">
+      <c r="A97" s="19">
+        <v>96</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C97" s="26"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="26"/>
+    </row>
+    <row r="98" spans="1:7" ht="30">
+      <c r="A98" s="19">
+        <v>97</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C98" s="26"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="26"/>
+    </row>
+    <row r="99" spans="1:7" ht="30">
+      <c r="A99" s="19">
+        <v>98</v>
+      </c>
+      <c r="B99" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C99" s="26"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="26"/>
+    </row>
+    <row r="100" spans="1:7" ht="30">
+      <c r="A100" s="19">
+        <v>99</v>
+      </c>
+      <c r="B100" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C100" s="26"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="26"/>
+    </row>
+    <row r="101" spans="1:7" ht="30">
+      <c r="A101" s="19">
+        <v>100</v>
+      </c>
+      <c r="B101" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C101" s="26"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="26"/>
+    </row>
+    <row r="102" spans="1:7" ht="15">
+      <c r="A102" s="19">
+        <v>101</v>
+      </c>
+      <c r="B102" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C102" s="26"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="26"/>
+    </row>
+    <row r="103" spans="1:7" ht="30">
+      <c r="A103" s="19">
+        <v>102</v>
+      </c>
+      <c r="B103" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C103" s="26"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="26"/>
+    </row>
+    <row r="104" spans="1:7" ht="30">
+      <c r="A104" s="19">
+        <v>103</v>
+      </c>
+      <c r="B104" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C104" s="26"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="26"/>
+    </row>
+    <row r="105" spans="1:7" ht="30">
+      <c r="A105" s="19">
+        <v>104</v>
+      </c>
+      <c r="B105" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105" s="26"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="26"/>
+    </row>
+    <row r="106" spans="1:7" ht="30">
+      <c r="A106" s="19">
+        <v>105</v>
+      </c>
+      <c r="B106" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C106" s="26"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="26"/>
+    </row>
+    <row r="107" spans="1:7" ht="30">
+      <c r="A107" s="19">
+        <v>106</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C107" s="26"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="26"/>
+    </row>
+    <row r="108" spans="1:7" ht="30">
+      <c r="A108" s="19">
+        <v>107</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C108" s="26"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="28"/>
+      <c r="G108" s="26"/>
+    </row>
+    <row r="109" spans="1:7" ht="30">
+      <c r="A109" s="19">
+        <v>108</v>
+      </c>
+      <c r="B109" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C109" s="26"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="26"/>
+    </row>
+    <row r="110" spans="1:7" ht="30">
+      <c r="A110" s="19">
+        <v>109</v>
+      </c>
+      <c r="B110" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C110" s="26"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="26"/>
+    </row>
+    <row r="111" spans="1:7" ht="30">
+      <c r="A111" s="19">
+        <v>110</v>
+      </c>
+      <c r="B111" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C111" s="26"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="26"/>
+    </row>
+    <row r="112" spans="1:7" ht="30">
+      <c r="A112" s="19">
+        <v>111</v>
+      </c>
+      <c r="B112" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C112" s="26"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="26"/>
+    </row>
+    <row r="113" spans="1:7" ht="30">
+      <c r="A113" s="19">
+        <v>112</v>
+      </c>
+      <c r="B113" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C113" s="26"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="26"/>
+    </row>
+    <row r="114" spans="1:7" ht="30">
+      <c r="A114" s="19">
+        <v>113</v>
+      </c>
+      <c r="B114" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C114" s="26"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="26"/>
+    </row>
+    <row r="115" spans="1:7" ht="15">
+      <c r="A115" s="19">
+        <v>114</v>
+      </c>
+      <c r="B115" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C115" s="26"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="26"/>
+    </row>
+    <row r="116" spans="1:7" ht="15">
+      <c r="A116" s="19">
+        <v>115</v>
+      </c>
+      <c r="B116" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C116" s="26"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="26"/>
+    </row>
+    <row r="117" spans="1:7" ht="30">
+      <c r="A117" s="19">
+        <v>116</v>
+      </c>
+      <c r="B117" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C117" s="26"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="26"/>
+    </row>
+    <row r="118" spans="1:7" ht="30">
+      <c r="A118" s="19">
+        <v>117</v>
+      </c>
+      <c r="B118" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C118" s="26"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="26"/>
+    </row>
+    <row r="119" spans="1:7" ht="30">
+      <c r="A119" s="19">
+        <v>118</v>
+      </c>
+      <c r="B119" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C119" s="26"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="28"/>
+      <c r="G119" s="26"/>
+    </row>
+    <row r="120" spans="1:7" ht="15">
+      <c r="A120" s="19">
+        <v>119</v>
+      </c>
+      <c r="B120" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C120" s="26"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="26"/>
+    </row>
+    <row r="121" spans="1:7" ht="30">
+      <c r="A121" s="19">
+        <v>120</v>
+      </c>
+      <c r="B121" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C121" s="26"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="26"/>
+    </row>
+    <row r="122" spans="1:7" ht="30">
+      <c r="A122" s="19">
+        <v>121</v>
+      </c>
+      <c r="B122" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C122" s="26"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="28"/>
+      <c r="G122" s="26"/>
+    </row>
+    <row r="123" spans="1:7" ht="15">
+      <c r="A123" s="19">
+        <v>122</v>
+      </c>
+      <c r="B123" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C123" s="26"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="26"/>
+    </row>
+    <row r="124" spans="1:7" ht="30">
+      <c r="A124" s="19">
+        <v>123</v>
+      </c>
+      <c r="B124" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C124" s="26"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="28"/>
+      <c r="G124" s="26"/>
+    </row>
+    <row r="125" spans="1:7" ht="15">
+      <c r="A125" s="19">
+        <v>124</v>
+      </c>
+      <c r="B125" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C125" s="26"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="26"/>
+    </row>
+    <row r="126" spans="1:7" ht="15">
+      <c r="A126" s="19">
+        <v>125</v>
+      </c>
+      <c r="B126" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C126" s="26"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="26"/>
+    </row>
+    <row r="127" spans="1:7" ht="15">
+      <c r="A127" s="19">
+        <v>126</v>
+      </c>
+      <c r="B127" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C127" s="26"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="26"/>
+    </row>
+    <row r="128" spans="1:7" ht="30">
+      <c r="A128" s="19">
+        <v>127</v>
+      </c>
+      <c r="B128" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C128" s="26"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="26"/>
+    </row>
+    <row r="129" spans="1:7" ht="15">
+      <c r="A129" s="19">
+        <v>128</v>
+      </c>
+      <c r="B129" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C129" s="26"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="26"/>
+    </row>
+    <row r="130" spans="1:7" ht="15">
+      <c r="A130" s="19">
+        <v>129</v>
+      </c>
+      <c r="B130" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C130" s="26"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="26"/>
+    </row>
+    <row r="131" spans="1:7" ht="15">
+      <c r="A131" s="19">
+        <v>130</v>
+      </c>
+      <c r="B131" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C131" s="26"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="25"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="26"/>
+    </row>
+    <row r="132" spans="1:7" ht="15">
+      <c r="A132" s="19">
+        <v>131</v>
+      </c>
+      <c r="B132" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C132" s="26"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="26"/>
+    </row>
+    <row r="133" spans="1:7" ht="15">
+      <c r="A133" s="19">
+        <v>132</v>
+      </c>
+      <c r="B133" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C133" s="26"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="25"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="26"/>
+    </row>
+    <row r="134" spans="1:7" ht="30">
+      <c r="A134" s="19">
+        <v>133</v>
+      </c>
+      <c r="B134" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C134" s="26"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="26"/>
+    </row>
+    <row r="135" spans="1:7" ht="30">
+      <c r="A135" s="19">
+        <v>134</v>
+      </c>
+      <c r="B135" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C135" s="26"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="26"/>
+    </row>
+    <row r="136" spans="1:7" ht="30">
+      <c r="A136" s="19">
+        <v>135</v>
+      </c>
+      <c r="B136" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C136" s="26"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="26"/>
+    </row>
+    <row r="137" spans="1:7" ht="30">
+      <c r="A137" s="19">
+        <v>136</v>
+      </c>
+      <c r="B137" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C137" s="26"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="26"/>
+    </row>
+    <row r="138" spans="1:7" ht="30">
+      <c r="A138" s="19">
+        <v>137</v>
+      </c>
+      <c r="B138" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C138" s="26"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="26"/>
+    </row>
+    <row r="139" spans="1:7" ht="30">
+      <c r="A139" s="19">
+        <v>138</v>
+      </c>
+      <c r="B139" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C139" s="26"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="26"/>
+    </row>
+    <row r="140" spans="1:7" ht="45">
+      <c r="A140" s="19">
+        <v>139</v>
+      </c>
+      <c r="B140" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C140" s="26"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="26"/>
+    </row>
+    <row r="141" spans="1:7" ht="30">
+      <c r="A141" s="19">
+        <v>140</v>
+      </c>
+      <c r="B141" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C141" s="26"/>
+      <c r="D141" s="27"/>
+      <c r="E141" s="25"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="26"/>
+    </row>
+    <row r="142" spans="1:7" ht="30">
+      <c r="A142" s="19">
+        <v>141</v>
+      </c>
+      <c r="B142" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C142" s="26"/>
+      <c r="D142" s="27"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="26"/>
+    </row>
+    <row r="143" spans="1:7" ht="30">
+      <c r="A143" s="19">
+        <v>142</v>
+      </c>
+      <c r="B143" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C143" s="26"/>
+      <c r="D143" s="27"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="26"/>
+    </row>
+    <row r="144" spans="1:7" ht="45">
+      <c r="A144" s="19">
+        <v>143</v>
+      </c>
+      <c r="B144" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C144" s="26"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="25"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="26"/>
+    </row>
+    <row r="145" spans="1:7" ht="15">
+      <c r="A145" s="19">
+        <v>144</v>
+      </c>
+      <c r="B145" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C145" s="26"/>
+      <c r="D145" s="27"/>
+      <c r="E145" s="25"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="26"/>
+    </row>
+    <row r="146" spans="1:7" ht="15">
+      <c r="A146" s="19">
+        <v>145</v>
+      </c>
+      <c r="B146" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C146" s="26"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="25"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="26"/>
+    </row>
+    <row r="147" spans="1:7" ht="15">
+      <c r="A147" s="19">
+        <v>146</v>
+      </c>
+      <c r="B147" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C147" s="26"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="25"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="26"/>
+    </row>
+    <row r="148" spans="1:7" ht="30">
+      <c r="A148" s="19">
+        <v>147</v>
+      </c>
+      <c r="B148" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C148" s="26"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="25"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="26"/>
+    </row>
+    <row r="149" spans="1:7" ht="15">
+      <c r="A149" s="19">
+        <v>148</v>
+      </c>
+      <c r="B149" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C149" s="26"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="26"/>
+    </row>
+    <row r="150" spans="1:7" ht="30">
+      <c r="A150" s="19">
+        <v>149</v>
+      </c>
+      <c r="B150" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C150" s="26"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="26"/>
+    </row>
+    <row r="151" spans="1:7" ht="30">
+      <c r="A151" s="19">
+        <v>150</v>
+      </c>
+      <c r="B151" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C151" s="26"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="25"/>
+      <c r="F151" s="28"/>
+      <c r="G151" s="26"/>
+    </row>
+    <row r="152" spans="1:7" ht="45">
+      <c r="A152" s="19">
+        <v>151</v>
+      </c>
+      <c r="B152" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C152" s="26"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="25"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="26"/>
+    </row>
+    <row r="153" spans="1:7" ht="45">
+      <c r="A153" s="19">
+        <v>152</v>
+      </c>
+      <c r="B153" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C153" s="26"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="25"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="26"/>
+    </row>
+    <row r="154" spans="1:7" ht="15">
+      <c r="A154" s="19">
+        <v>153</v>
+      </c>
+      <c r="B154" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C154" s="26"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="25"/>
+      <c r="F154" s="28"/>
+      <c r="G154" s="26"/>
+    </row>
+    <row r="155" spans="1:7" ht="15">
+      <c r="A155" s="19">
+        <v>154</v>
+      </c>
+      <c r="B155" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C155" s="26"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="28"/>
+      <c r="G155" s="26"/>
+    </row>
+    <row r="156" spans="1:7" ht="15">
+      <c r="A156" s="19">
+        <v>155</v>
+      </c>
+      <c r="B156" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C156" s="26"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="26"/>
+    </row>
+    <row r="157" spans="1:7" ht="15">
+      <c r="A157" s="19">
+        <v>156</v>
+      </c>
+      <c r="B157" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="C157" s="26"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="25"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/Excel Files/Question Prepared For Testing.xlsx
+++ b/src/test/resources/Excel Files/Question Prepared For Testing.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="2" r:id="rId1"/>
     <sheet name="Set 1 Questions" sheetId="3" r:id="rId2"/>
     <sheet name="Gustov Questions" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -968,14 +969,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -997,6 +990,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -1665,44 +1666,44 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1727,13 +1728,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2094,1234 +2095,1234 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:7">
-      <c r="A2" s="6">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="24">
         <v>45637</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="25"/>
-      <c r="G2" s="8"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" ht="15" spans="1:7">
-      <c r="A3" s="6">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="24">
         <v>45637</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="25"/>
-      <c r="G3" s="8"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" ht="30" spans="1:7">
-      <c r="A4" s="6">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="24">
         <v>45637</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="25"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" ht="30" spans="1:7">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="3">
         <v>87</v>
       </c>
       <c r="D5" s="24">
         <v>45637</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" ht="30" spans="1:7">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="3">
         <v>87</v>
       </c>
       <c r="D6" s="24">
         <v>45637</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="25"/>
-      <c r="G6" s="8"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" ht="15" spans="1:7">
-      <c r="A7" s="6">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="24">
         <v>45637</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" ht="15" spans="1:7">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="24">
         <v>45637</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" ht="45" spans="1:7">
-      <c r="A9" s="6">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="24">
         <v>45637</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" ht="30" spans="1:7">
-      <c r="A10" s="6">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="24">
         <v>45637</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" ht="30" spans="1:7">
-      <c r="A11" s="6">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="24">
         <v>45637</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" ht="30" spans="1:7">
-      <c r="A12" s="6">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="24">
         <v>45637</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" ht="30" spans="1:7">
-      <c r="A13" s="6">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="24">
         <v>45637</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" ht="30" spans="1:7">
-      <c r="A14" s="6">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="3">
         <v>0.0689</v>
       </c>
       <c r="D14" s="24">
         <v>45637</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" ht="30" spans="1:7">
-      <c r="A15" s="6">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="24">
         <v>45637</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" ht="30" spans="1:7">
-      <c r="A16" s="6">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="24">
         <v>45637</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" ht="15" spans="1:7">
-      <c r="A17" s="6">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="24">
         <v>45637</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" ht="30" spans="1:7">
-      <c r="A18" s="6">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="24">
         <v>45637</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="8"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" ht="30" spans="1:7">
-      <c r="A19" s="6">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="24">
         <v>45637</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" ht="30" spans="1:7">
-      <c r="A20" s="6">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="24">
         <v>45637</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" ht="30" spans="1:7">
-      <c r="A21" s="6">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="24">
         <v>45637</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" ht="30" spans="1:7">
-      <c r="A22" s="6">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="3">
         <v>0.09</v>
       </c>
       <c r="D22" s="24">
         <v>45637</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="8"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" ht="30" spans="1:7">
-      <c r="A23" s="6">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="3">
         <v>0.78</v>
       </c>
       <c r="D23" s="24">
         <v>45637</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" ht="30" spans="1:7">
-      <c r="A24" s="6">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="3">
         <v>0.108042718416269</v>
       </c>
       <c r="D24" s="24">
         <v>45637</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="8"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" ht="30" spans="1:7">
-      <c r="A25" s="6">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="3">
         <v>-0.46</v>
       </c>
       <c r="D25" s="24">
         <v>45637</v>
       </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" ht="30" spans="1:7">
-      <c r="A26" s="6">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="3">
         <v>0.29</v>
       </c>
       <c r="D26" s="24">
         <v>45637</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="8"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" ht="30" spans="1:7">
-      <c r="A27" s="6">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="3">
         <v>-0.09</v>
       </c>
       <c r="D27" s="24">
         <v>45637</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="8"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" ht="30" spans="1:7">
-      <c r="A28" s="6">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="24">
         <v>45637</v>
       </c>
-      <c r="E28" s="10"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="8"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" ht="30" spans="1:7">
-      <c r="A29" s="6">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="24">
         <v>45637</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="8"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" ht="15" spans="1:7">
-      <c r="A30" s="6">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="24">
         <v>45637</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="8"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" ht="15" spans="1:7">
-      <c r="A31" s="6">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="24">
         <v>45637</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="8"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" ht="30" spans="1:7">
-      <c r="A32" s="6">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="24">
         <v>45637</v>
       </c>
-      <c r="E32" s="10"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="8"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" ht="30" spans="1:7">
-      <c r="A33" s="6">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="24">
         <v>45637</v>
       </c>
-      <c r="E33" s="10"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="8"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" ht="30" spans="1:7">
-      <c r="A34" s="6">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D34" s="24">
         <v>45637</v>
       </c>
-      <c r="E34" s="10"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="8"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" ht="15" spans="1:7">
-      <c r="A35" s="6">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D35" s="24">
         <v>45637</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="8"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" ht="45" spans="1:7">
-      <c r="A36" s="6">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="24">
         <v>45637</v>
       </c>
-      <c r="E36" s="10"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="8"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" ht="30" spans="1:7">
-      <c r="A37" s="6">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D37" s="24">
         <v>45637</v>
       </c>
-      <c r="E37" s="10"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="8"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" ht="105" spans="1:7">
-      <c r="A38" s="6">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D38" s="24">
         <v>45637</v>
       </c>
-      <c r="E38" s="10"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="8"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" ht="30" spans="1:7">
-      <c r="A39" s="6">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="3">
         <v>2691.35</v>
       </c>
       <c r="D39" s="24">
         <v>45637</v>
       </c>
-      <c r="E39" s="10"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="8"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" ht="15" spans="1:7">
-      <c r="A40" s="6">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D40" s="24">
         <v>45637</v>
       </c>
-      <c r="E40" s="10"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="8"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" ht="15" spans="1:7">
-      <c r="A41" s="6">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D41" s="24">
         <v>45637</v>
       </c>
-      <c r="E41" s="10"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="25"/>
-      <c r="G41" s="8"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" ht="30" spans="1:7">
-      <c r="A42" s="6">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D42" s="24">
         <v>45637</v>
       </c>
-      <c r="E42" s="10"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="25"/>
-      <c r="G42" s="8"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" ht="30" spans="1:7">
-      <c r="A43" s="6">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D43" s="24">
         <v>45637</v>
       </c>
-      <c r="E43" s="10"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="25"/>
-      <c r="G43" s="8"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" ht="60" spans="1:7">
-      <c r="A44" s="6">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="24">
         <v>45637</v>
       </c>
-      <c r="E44" s="10"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="25"/>
-      <c r="G44" s="8"/>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" ht="15" spans="1:7">
-      <c r="A45" s="6">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D45" s="24">
         <v>45637</v>
       </c>
-      <c r="E45" s="10"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="25"/>
-      <c r="G45" s="8"/>
+      <c r="G45" s="3"/>
     </row>
     <row r="46" ht="15" spans="1:7">
-      <c r="A46" s="6">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D46" s="24">
         <v>45637</v>
       </c>
-      <c r="E46" s="10"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="25"/>
-      <c r="G46" s="8"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" ht="15" spans="1:7">
-      <c r="A47" s="6">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D47" s="24">
         <v>45637</v>
       </c>
-      <c r="E47" s="10"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="25"/>
-      <c r="G47" s="8"/>
+      <c r="G47" s="3"/>
     </row>
     <row r="48" ht="15" spans="1:7">
-      <c r="A48" s="6">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D48" s="24">
         <v>45637</v>
       </c>
-      <c r="E48" s="10"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="25"/>
-      <c r="G48" s="8"/>
+      <c r="G48" s="3"/>
     </row>
     <row r="49" ht="30" spans="1:7">
-      <c r="A49" s="6">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D49" s="24">
         <v>45637</v>
       </c>
-      <c r="E49" s="10"/>
+      <c r="E49" s="5"/>
       <c r="F49" s="25"/>
-      <c r="G49" s="8"/>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" ht="30" spans="1:7">
-      <c r="A50" s="6">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D50" s="24">
         <v>45637</v>
       </c>
-      <c r="E50" s="10"/>
+      <c r="E50" s="5"/>
       <c r="F50" s="25"/>
-      <c r="G50" s="8"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" ht="30" spans="1:7">
-      <c r="A51" s="6">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D51" s="24">
         <v>45637</v>
       </c>
-      <c r="E51" s="10"/>
+      <c r="E51" s="5"/>
       <c r="F51" s="25"/>
-      <c r="G51" s="8"/>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" ht="165" spans="1:7">
-      <c r="A52" s="6">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D52" s="24">
         <v>45637</v>
       </c>
-      <c r="E52" s="10"/>
+      <c r="E52" s="5"/>
       <c r="F52" s="25"/>
-      <c r="G52" s="8"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" ht="30" spans="1:7">
-      <c r="A53" s="6">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D53" s="24">
         <v>45637</v>
       </c>
-      <c r="E53" s="10"/>
+      <c r="E53" s="5"/>
       <c r="F53" s="25"/>
-      <c r="G53" s="8"/>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" ht="105" spans="1:7">
-      <c r="A54" s="6">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D54" s="24">
         <v>45637</v>
       </c>
-      <c r="E54" s="10"/>
+      <c r="E54" s="5"/>
       <c r="F54" s="25"/>
-      <c r="G54" s="8"/>
+      <c r="G54" s="3"/>
     </row>
     <row r="55" ht="45" spans="1:7">
-      <c r="A55" s="6">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D55" s="24">
         <v>45637</v>
       </c>
-      <c r="E55" s="10"/>
+      <c r="E55" s="5"/>
       <c r="F55" s="25"/>
-      <c r="G55" s="8"/>
+      <c r="G55" s="3"/>
     </row>
     <row r="56" ht="30" spans="1:7">
-      <c r="A56" s="6">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D56" s="24">
         <v>45637</v>
       </c>
-      <c r="E56" s="10"/>
+      <c r="E56" s="5"/>
       <c r="F56" s="25"/>
-      <c r="G56" s="8"/>
+      <c r="G56" s="3"/>
     </row>
     <row r="57" ht="30" spans="1:7">
-      <c r="A57" s="6">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D57" s="24">
         <v>45637</v>
       </c>
-      <c r="E57" s="10"/>
+      <c r="E57" s="5"/>
       <c r="F57" s="25"/>
-      <c r="G57" s="8"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" ht="30" spans="1:7">
-      <c r="A58" s="6">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D58" s="24">
         <v>45637</v>
       </c>
-      <c r="E58" s="10"/>
+      <c r="E58" s="5"/>
       <c r="F58" s="25"/>
-      <c r="G58" s="8"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" ht="120" spans="1:7">
-      <c r="A59" s="6">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D59" s="24">
         <v>45637</v>
       </c>
-      <c r="E59" s="10"/>
+      <c r="E59" s="5"/>
       <c r="F59" s="25"/>
-      <c r="G59" s="8"/>
+      <c r="G59" s="3"/>
     </row>
     <row r="60" ht="15" spans="1:7">
-      <c r="A60" s="6">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D60" s="24">
         <v>45637</v>
       </c>
-      <c r="E60" s="10"/>
+      <c r="E60" s="5"/>
       <c r="F60" s="25"/>
-      <c r="G60" s="8"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" ht="15" spans="1:7">
-      <c r="A61" s="6">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="3" t="s">
         <v>106</v>
       </c>
       <c r="D61" s="24">
         <v>45637</v>
       </c>
-      <c r="E61" s="10"/>
+      <c r="E61" s="5"/>
       <c r="F61" s="25"/>
-      <c r="G61" s="8"/>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" ht="15" spans="1:7">
-      <c r="A62" s="6">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D62" s="24">
         <v>45637</v>
       </c>
-      <c r="E62" s="10"/>
+      <c r="E62" s="5"/>
       <c r="F62" s="25"/>
-      <c r="G62" s="8"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" ht="30" spans="1:7">
-      <c r="A63" s="6">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D63" s="24">
         <v>45637</v>
       </c>
-      <c r="E63" s="10"/>
+      <c r="E63" s="5"/>
       <c r="F63" s="25"/>
-      <c r="G63" s="8"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" ht="30" spans="1:7">
-      <c r="A64" s="6">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="3" t="s">
         <v>112</v>
       </c>
       <c r="D64" s="24">
         <v>45637</v>
       </c>
-      <c r="E64" s="10"/>
+      <c r="E64" s="5"/>
       <c r="F64" s="25"/>
-      <c r="G64" s="8"/>
+      <c r="G64" s="3"/>
     </row>
     <row r="65" ht="105" spans="1:7">
-      <c r="A65" s="6">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D65" s="24">
         <v>45637</v>
       </c>
-      <c r="E65" s="10"/>
+      <c r="E65" s="5"/>
       <c r="F65" s="25"/>
-      <c r="G65" s="8"/>
+      <c r="G65" s="3"/>
     </row>
     <row r="66" ht="45" spans="1:7">
-      <c r="A66" s="6">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D66" s="24">
         <v>45637</v>
       </c>
-      <c r="E66" s="10"/>
+      <c r="E66" s="5"/>
       <c r="F66" s="25"/>
-      <c r="G66" s="8"/>
+      <c r="G66" s="3"/>
     </row>
     <row r="67" ht="45" spans="1:7">
-      <c r="A67" s="6">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D67" s="24">
         <v>45637</v>
       </c>
-      <c r="E67" s="10"/>
+      <c r="E67" s="5"/>
       <c r="F67" s="25"/>
-      <c r="G67" s="8"/>
+      <c r="G67" s="3"/>
     </row>
     <row r="68" ht="45" spans="1:7">
-      <c r="A68" s="6">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="3" t="s">
         <v>120</v>
       </c>
       <c r="D68" s="24">
         <v>45637</v>
       </c>
-      <c r="E68" s="10"/>
+      <c r="E68" s="5"/>
       <c r="F68" s="25"/>
-      <c r="G68" s="8"/>
+      <c r="G68" s="3"/>
     </row>
     <row r="69" ht="30" spans="1:7">
-      <c r="A69" s="6">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D69" s="24">
         <v>45637</v>
       </c>
-      <c r="E69" s="10"/>
+      <c r="E69" s="5"/>
       <c r="F69" s="25"/>
-      <c r="G69" s="8"/>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" ht="45" spans="1:7">
-      <c r="A70" s="6">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D70" s="24">
         <v>45637</v>
       </c>
-      <c r="E70" s="10"/>
+      <c r="E70" s="5"/>
       <c r="F70" s="25"/>
-      <c r="G70" s="8"/>
+      <c r="G70" s="3"/>
     </row>
     <row r="71" ht="75" spans="1:7">
-      <c r="A71" s="6">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D71" s="24">
         <v>45637</v>
       </c>
-      <c r="E71" s="10"/>
+      <c r="E71" s="5"/>
       <c r="F71" s="25"/>
-      <c r="G71" s="8"/>
+      <c r="G71" s="3"/>
     </row>
     <row r="72" ht="60" spans="1:7">
-      <c r="A72" s="6">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D72" s="24">
         <v>45637</v>
       </c>
-      <c r="E72" s="10"/>
+      <c r="E72" s="5"/>
       <c r="F72" s="25"/>
-      <c r="G72" s="8"/>
+      <c r="G72" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3335,15 +3336,15 @@
   <sheetPr/>
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D86"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="88.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="71.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="88.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="71.125" style="8" customWidth="1"/>
     <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="6.375" customWidth="1"/>
@@ -3351,1470 +3352,1470 @@
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A2" s="6">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="2">
         <v>89</v>
       </c>
-      <c r="D2" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12"/>
+      <c r="D2" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A3" s="6">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E3" s="10"/>
+      <c r="D3" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="12"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A4" s="6">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E4" s="10"/>
+      <c r="D4" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E5" s="10"/>
+      <c r="D5" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E6" s="10"/>
+      <c r="D6" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A7" s="6">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="12"/>
+      <c r="D7" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="2">
         <v>180</v>
       </c>
-      <c r="D8" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="12"/>
+      <c r="D8" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" s="13" customFormat="1" ht="45" spans="1:7">
-      <c r="A9" s="6">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="12"/>
+      <c r="D9" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A10" s="6">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E10" s="10"/>
+      <c r="D10" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A11" s="6">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="2">
         <v>8.5</v>
       </c>
-      <c r="D11" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="12"/>
+      <c r="D11" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A12" s="6">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="2">
         <v>855</v>
       </c>
-      <c r="D12" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
+      <c r="D12" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A13" s="6">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="12"/>
+      <c r="D13" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A14" s="6">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="12"/>
+      <c r="D14" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A15" s="6">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A16" s="6">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="12"/>
+      <c r="D16" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" s="13" customFormat="1" ht="60" spans="1:7">
-      <c r="A17" s="6">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="4">
         <v>45637</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="6">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
+      <c r="D18" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A19" s="6">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
+      <c r="D19" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A20" s="6">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E20" s="10"/>
+      <c r="D20" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A21" s="6">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
+      <c r="D21" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A22" s="6">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
+      <c r="D22" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" s="13" customFormat="1" ht="45" spans="1:7">
-      <c r="A23" s="6">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
+      <c r="D23" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A24" s="6">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D24" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
+      <c r="D24" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A25" s="6">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
+      <c r="D25" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" s="13" customFormat="1" ht="409.5" spans="1:7">
-      <c r="A26" s="6">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E26" s="10"/>
+      <c r="D26" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A27" s="6">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
+      <c r="D27" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A28" s="6">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D28" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
+      <c r="D28" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A29" s="6">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D29" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
+      <c r="D29" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A30" s="6">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
+      <c r="D30" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A31" s="6">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
+      <c r="D31" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A32" s="6">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D32" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
+      <c r="D32" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A33" s="6">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
+      <c r="D33" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A34" s="6">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
+      <c r="D34" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A35" s="6">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
+      <c r="D35" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A36" s="6">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D36" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="12"/>
+      <c r="D36" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A37" s="6">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D37" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
+      <c r="D37" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A38" s="6">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
+      <c r="D38" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A39" s="6">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D39" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
+      <c r="D39" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A40" s="6">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D40" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
+      <c r="D40" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" s="13" customFormat="1" ht="195" spans="1:7">
-      <c r="A41" s="6">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
+      <c r="D41" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A42" s="6">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D42" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
+      <c r="D42" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A43" s="6">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D43" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
+      <c r="D43" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A44" s="6">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D44" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
+      <c r="D44" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A45" s="6">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D45" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
+      <c r="D45" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A46" s="6">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D46" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
+      <c r="D46" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
     </row>
     <row r="47" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A47" s="6">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D47" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="12"/>
+      <c r="D47" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" s="13" customFormat="1" ht="75" spans="1:7">
-      <c r="A48" s="6">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D48" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
+      <c r="D48" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A49" s="6">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D49" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E49" s="10"/>
+      <c r="D49" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E49" s="5"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="12"/>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A50" s="6">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
+      <c r="D50" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A51" s="6">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="2">
         <v>7</v>
       </c>
-      <c r="D51" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E51" s="10"/>
+      <c r="D51" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E51" s="5"/>
       <c r="F51" s="15"/>
-      <c r="G51" s="12"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A52" s="6">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D52" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
+      <c r="D52" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A53" s="6">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D53" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E53" s="10"/>
+      <c r="D53" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E53" s="5"/>
       <c r="F53" s="18"/>
-      <c r="G53" s="12"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A54" s="6">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D54" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E54" s="10"/>
+      <c r="D54" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E54" s="5"/>
       <c r="F54" s="15"/>
-      <c r="G54" s="12"/>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A55" s="6">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D55" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
+      <c r="D55" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A56" s="6">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D56" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E56" s="10"/>
+      <c r="D56" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E56" s="5"/>
       <c r="F56" s="15"/>
-      <c r="G56" s="12"/>
+      <c r="G56" s="7"/>
     </row>
     <row r="57" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A57" s="6">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D57" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E57" s="10"/>
+      <c r="D57" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E57" s="5"/>
       <c r="F57" s="15"/>
-      <c r="G57" s="12"/>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A58" s="6">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D58" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="12"/>
+      <c r="D58" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="7"/>
     </row>
     <row r="59" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A59" s="6">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D59" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="12"/>
+      <c r="D59" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A60" s="6">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D60" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E60" s="10"/>
+      <c r="D60" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E60" s="5"/>
       <c r="F60" s="15"/>
-      <c r="G60" s="12"/>
+      <c r="G60" s="7"/>
     </row>
     <row r="61" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A61" s="6">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D61" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E61" s="10"/>
+      <c r="D61" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E61" s="5"/>
       <c r="F61" s="15"/>
-      <c r="G61" s="12"/>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A62" s="6">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D62" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E62" s="10"/>
+      <c r="D62" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E62" s="5"/>
       <c r="F62" s="15"/>
-      <c r="G62" s="12"/>
+      <c r="G62" s="7"/>
     </row>
     <row r="63" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A63" s="6">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D63" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E63" s="10"/>
+      <c r="D63" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E63" s="5"/>
       <c r="F63" s="15"/>
-      <c r="G63" s="12"/>
+      <c r="G63" s="7"/>
     </row>
     <row r="64" s="13" customFormat="1" ht="45" spans="1:7">
-      <c r="A64" s="6">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D64" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E64" s="10"/>
+      <c r="D64" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E64" s="5"/>
       <c r="F64" s="15"/>
-      <c r="G64" s="12"/>
+      <c r="G64" s="7"/>
     </row>
     <row r="65" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A65" s="6">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D65" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="12"/>
+      <c r="D65" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="7"/>
     </row>
     <row r="66" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A66" s="6">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D66" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="12"/>
+      <c r="D66" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="7"/>
     </row>
     <row r="67" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A67" s="6">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D67" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E67" s="10"/>
+      <c r="D67" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E67" s="5"/>
       <c r="F67" s="15"/>
-      <c r="G67" s="12"/>
+      <c r="G67" s="7"/>
     </row>
     <row r="68" s="13" customFormat="1" ht="45" spans="1:7">
-      <c r="A68" s="6">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D68" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E68" s="10"/>
+      <c r="D68" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E68" s="5"/>
       <c r="F68" s="15"/>
-      <c r="G68" s="12"/>
+      <c r="G68" s="7"/>
     </row>
     <row r="69" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A69" s="6">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D69" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E69" s="10"/>
+      <c r="D69" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E69" s="5"/>
       <c r="F69" s="15"/>
-      <c r="G69" s="12"/>
+      <c r="G69" s="7"/>
     </row>
     <row r="70" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A70" s="6">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D70" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E70" s="10"/>
+      <c r="D70" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E70" s="5"/>
       <c r="F70" s="15"/>
-      <c r="G70" s="12"/>
+      <c r="G70" s="7"/>
     </row>
     <row r="71" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A71" s="6">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D71" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="12"/>
+      <c r="D71" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="7"/>
     </row>
     <row r="72" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A72" s="6">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D72" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E72" s="10"/>
+      <c r="D72" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E72" s="5"/>
       <c r="F72" s="15"/>
-      <c r="G72" s="12"/>
+      <c r="G72" s="7"/>
     </row>
     <row r="73" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A73" s="6">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D73" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="12"/>
+      <c r="D73" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="7"/>
     </row>
     <row r="74" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A74" s="6">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D74" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="12"/>
+      <c r="D74" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="7"/>
     </row>
     <row r="75" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A75" s="6">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D75" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="12"/>
+      <c r="D75" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="7"/>
     </row>
     <row r="76" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A76" s="6">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D76" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="12"/>
+      <c r="D76" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="7"/>
     </row>
     <row r="77" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A77" s="6">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D77" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="12"/>
+      <c r="D77" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="7"/>
     </row>
     <row r="78" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A78" s="6">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="12"/>
+      <c r="D78" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="7"/>
     </row>
     <row r="79" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A79" s="6">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D79" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="12"/>
+      <c r="D79" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="7"/>
     </row>
     <row r="80" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A80" s="6">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D80" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="12"/>
+      <c r="D80" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="7"/>
     </row>
     <row r="81" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A81" s="6">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D81" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="12"/>
+      <c r="D81" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="7"/>
     </row>
     <row r="82" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A82" s="6">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="12"/>
+      <c r="D82" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="7"/>
     </row>
     <row r="83" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A83" s="6">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="12"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E83" s="5"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="7"/>
     </row>
     <row r="84" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A84" s="6">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D84" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="12"/>
+      <c r="D84" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="7"/>
     </row>
     <row r="85" s="13" customFormat="1" ht="15" spans="1:7">
-      <c r="A85" s="6">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D85" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="12"/>
+      <c r="D85" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E85" s="5"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="7"/>
     </row>
     <row r="86" s="13" customFormat="1" ht="30" spans="1:7">
-      <c r="A86" s="6">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D86" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="12"/>
+      <c r="D86" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4827,14 +4828,14 @@
   <sheetPr/>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="3" width="75.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="75.625" style="8" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="6.375" customWidth="1"/>
@@ -4842,1234 +4843,1265 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" ht="15" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="30" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" ht="30" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>87</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" ht="30" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>87</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" ht="15" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" ht="15" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" ht="30" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" ht="30" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" ht="45" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" ht="30" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" ht="30" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" ht="30" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.0689</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" ht="30" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" ht="30" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" ht="15" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" ht="30" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" ht="30" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" ht="30" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" ht="30" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" ht="30" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="D22" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" ht="30" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="D23" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" ht="30" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.108042718416269</v>
+      </c>
+      <c r="D24" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" ht="30" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="3">
+        <v>-0.46</v>
+      </c>
+      <c r="D25" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" ht="30" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.29</v>
+      </c>
+      <c r="D26" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" ht="30" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-0.09</v>
+      </c>
+      <c r="D27" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" ht="30" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" ht="30" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" ht="15" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" ht="15" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" ht="30" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" ht="30" spans="1:7">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" ht="30" spans="1:7">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" ht="15" spans="1:7">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" ht="30" spans="1:7">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" ht="30" spans="1:7">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" ht="75" spans="1:7">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" ht="30" spans="1:7">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2691.35</v>
+      </c>
+      <c r="D39" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" ht="15" spans="1:7">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" ht="15" spans="1:7">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" ht="15" spans="1:7">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" ht="30" spans="1:7">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" ht="45" spans="1:7">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" ht="15" spans="1:7">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" ht="15" spans="1:7">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" ht="15" spans="1:7">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" ht="15" spans="1:7">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" ht="30" spans="1:7">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" ht="30" spans="1:7">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" ht="30" spans="1:7">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" ht="165" spans="1:7">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" ht="30" spans="1:7">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" ht="105" spans="1:7">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" ht="45" spans="1:7">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" ht="30" spans="1:7">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" ht="30" spans="1:7">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" ht="30" spans="1:7">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" customFormat="1"/>
+    <row r="60" customFormat="1"/>
+    <row r="61" customFormat="1"/>
+    <row r="62" customFormat="1"/>
+    <row r="63" customFormat="1"/>
+    <row r="64" customFormat="1"/>
+    <row r="65" customFormat="1"/>
+    <row r="66" customFormat="1"/>
+    <row r="67" customFormat="1"/>
+    <row r="68" customFormat="1"/>
+    <row r="69" customFormat="1"/>
+    <row r="70" customFormat="1"/>
+    <row r="71" customFormat="1"/>
+    <row r="72" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="409.5" spans="1:7">
+      <c r="A1" s="1">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="15" spans="1:7">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" ht="15" spans="1:7">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" ht="30" spans="1:7">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" ht="30" spans="1:7">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8">
-        <v>87</v>
-      </c>
-      <c r="D5" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" ht="30" spans="1:7">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="8">
-        <v>87</v>
-      </c>
-      <c r="D6" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" ht="15" spans="1:7">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" ht="15" spans="1:7">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" ht="30" spans="1:7">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" ht="30" spans="1:7">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" ht="45" spans="1:7">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" ht="30" spans="1:7">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" ht="30" spans="1:7">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" ht="30" spans="1:7">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="8">
-        <v>0.0689</v>
-      </c>
-      <c r="D14" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" ht="30" spans="1:7">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" ht="30" spans="1:7">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" ht="15" spans="1:7">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" ht="30" spans="1:7">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" ht="30" spans="1:7">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" ht="30" spans="1:7">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" ht="30" spans="1:7">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" ht="30" spans="1:7">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="D22" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" ht="30" spans="1:7">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0.78</v>
-      </c>
-      <c r="D23" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" ht="30" spans="1:7">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0.108042718416269</v>
-      </c>
-      <c r="D24" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" ht="30" spans="1:7">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="8">
-        <v>-0.46</v>
-      </c>
-      <c r="D25" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" ht="30" spans="1:7">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="8">
-        <v>0.29</v>
-      </c>
-      <c r="D26" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" ht="30" spans="1:7">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="8">
-        <v>-0.09</v>
-      </c>
-      <c r="D27" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" ht="30" spans="1:7">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" ht="30" spans="1:7">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" ht="15" spans="1:7">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" ht="15" spans="1:7">
-      <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" ht="30" spans="1:7">
-      <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" ht="30" spans="1:7">
-      <c r="A33" s="6">
-        <v>32</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" ht="30" spans="1:7">
-      <c r="A34" s="6">
-        <v>33</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" ht="105" spans="1:7">
+      <c r="A2" s="1">
         <v>59</v>
       </c>
-      <c r="D34" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" ht="15" spans="1:7">
-      <c r="A35" s="6">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7" t="s">
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" ht="105" spans="1:7">
+      <c r="A3" s="1">
         <v>60</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" ht="30" spans="1:7">
-      <c r="A36" s="6">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7" t="s">
+      <c r="B3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="120" spans="1:7">
+      <c r="A4" s="1">
         <v>61</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="B4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" ht="180" spans="1:7">
+      <c r="A5" s="1">
         <v>62</v>
       </c>
-      <c r="D36" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" ht="30" spans="1:7">
-      <c r="A37" s="6">
-        <v>36</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="B5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" ht="150" spans="1:7">
+      <c r="A6" s="1">
         <v>63</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" ht="75" spans="1:7">
-      <c r="A38" s="6">
-        <v>37</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="B6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" ht="409.5" spans="1:7">
+      <c r="A7" s="1">
         <v>64</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" ht="255" spans="1:7">
+      <c r="A8" s="1">
         <v>65</v>
       </c>
-      <c r="D38" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" ht="30" spans="1:7">
-      <c r="A39" s="6">
-        <v>38</v>
-      </c>
-      <c r="B39" s="7" t="s">
+      <c r="B8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" ht="405" spans="1:7">
+      <c r="A9" s="1">
         <v>66</v>
       </c>
-      <c r="C39" s="8">
-        <v>2691.35</v>
-      </c>
-      <c r="D39" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" ht="15" spans="1:7">
-      <c r="A40" s="6">
-        <v>39</v>
-      </c>
-      <c r="B40" s="7" t="s">
+      <c r="B9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" ht="409.5" spans="1:7">
+      <c r="A10" s="1">
         <v>67</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="B10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" ht="120" spans="1:7">
+      <c r="A11" s="1">
         <v>68</v>
       </c>
-      <c r="D40" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" ht="15" spans="1:7">
-      <c r="A41" s="6">
-        <v>40</v>
-      </c>
-      <c r="B41" s="7" t="s">
+      <c r="B11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" ht="270" spans="1:7">
+      <c r="A12" s="1">
         <v>69</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="B12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" ht="409.5" spans="1:7">
+      <c r="A13" s="1">
         <v>70</v>
       </c>
-      <c r="D41" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" ht="15" spans="1:7">
-      <c r="A42" s="6">
-        <v>41</v>
-      </c>
-      <c r="B42" s="7" t="s">
+      <c r="B13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" ht="409.5" spans="1:7">
+      <c r="A14" s="1">
         <v>71</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" ht="30" spans="1:7">
-      <c r="A43" s="6">
-        <v>42</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" ht="45" spans="1:7">
-      <c r="A44" s="6">
-        <v>43</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" ht="15" spans="1:7">
-      <c r="A45" s="6">
-        <v>44</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" ht="15" spans="1:7">
-      <c r="A46" s="6">
-        <v>45</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" ht="15" spans="1:7">
-      <c r="A47" s="6">
-        <v>46</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" ht="15" spans="1:7">
-      <c r="A48" s="6">
-        <v>47</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" ht="30" spans="1:7">
-      <c r="A49" s="6">
-        <v>48</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" ht="30" spans="1:7">
-      <c r="A50" s="6">
-        <v>49</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" ht="30" spans="1:7">
-      <c r="A51" s="6">
-        <v>50</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" ht="165" spans="1:7">
-      <c r="A52" s="6">
-        <v>51</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" ht="30" spans="1:7">
-      <c r="A53" s="6">
-        <v>52</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54" ht="105" spans="1:7">
-      <c r="A54" s="6">
-        <v>53</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" ht="45" spans="1:7">
-      <c r="A55" s="6">
-        <v>54</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" ht="30" spans="1:7">
-      <c r="A56" s="6">
-        <v>55</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57" ht="30" spans="1:7">
-      <c r="A57" s="6">
-        <v>56</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" ht="30" spans="1:7">
-      <c r="A58" s="6">
-        <v>57</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="12"/>
-    </row>
-    <row r="59" ht="75" spans="1:7">
-      <c r="A59" s="6">
-        <v>58</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D59" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="12"/>
-    </row>
-    <row r="60" ht="15" spans="1:7">
-      <c r="A60" s="6">
-        <v>59</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D60" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="12"/>
-    </row>
-    <row r="61" ht="15" spans="1:7">
-      <c r="A61" s="6">
-        <v>60</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="12"/>
-    </row>
-    <row r="62" ht="15" spans="1:7">
-      <c r="A62" s="6">
-        <v>61</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D62" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="12"/>
-    </row>
-    <row r="63" ht="30" spans="1:7">
-      <c r="A63" s="6">
-        <v>62</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D63" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="12"/>
-    </row>
-    <row r="64" ht="15" spans="1:7">
-      <c r="A64" s="6">
-        <v>63</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="12"/>
-    </row>
-    <row r="65" ht="75" spans="1:7">
-      <c r="A65" s="6">
-        <v>64</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D65" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" ht="30" spans="1:7">
-      <c r="A66" s="6">
-        <v>65</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D66" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="12"/>
-    </row>
-    <row r="67" ht="45" spans="1:7">
-      <c r="A67" s="6">
-        <v>66</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D67" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" ht="45" spans="1:7">
-      <c r="A68" s="6">
-        <v>67</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D68" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" ht="15" spans="1:7">
-      <c r="A69" s="6">
-        <v>68</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D69" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70" ht="30" spans="1:7">
-      <c r="A70" s="6">
-        <v>69</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D70" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="12"/>
-    </row>
-    <row r="71" ht="45" spans="1:7">
-      <c r="A71" s="6">
-        <v>70</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D71" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="12"/>
-    </row>
-    <row r="72" ht="45" spans="1:7">
-      <c r="A72" s="6">
-        <v>71</v>
-      </c>
-      <c r="B72" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D72" s="9">
-        <v>45637</v>
-      </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="12"/>
+      <c r="D14" s="4">
+        <v>45637</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/Excel Files/Question Prepared For Testing.xlsx
+++ b/src/test/resources/Excel Files/Question Prepared For Testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="291">
   <si>
     <t>S. No.</t>
   </si>
@@ -947,6 +947,75 @@
   </si>
   <si>
     <t>0 (Since we loaded only the data provided by the MSCI)</t>
+  </si>
+  <si>
+    <t>No, Onex Corporation does not have an ongoing target to reduce carbon emissions as of 01-05-2024.</t>
+  </si>
+  <si>
+    <t>The top 3 sub industries with the most aggressive efforts to use clean sources of energy are:
+1. Electric Utilities
+2. Renewable Electricity
+3. Paper &amp; Plastic Packaging Products &amp; Materials</t>
+  </si>
+  <si>
+    <t>There are 87 companies that have listed climate change as a business risk factor in their mainstream financial reporting as of 01-05-2024.</t>
+  </si>
+  <si>
+    <t>There are 98 companies that include climate change as a risk factor in their financial statements as of 01-05-2024.</t>
+  </si>
+  <si>
+    <t>No, the Bank of Baroda is not involved in green bonds as of 01-05-2024.</t>
+  </si>
+  <si>
+    <t>Yes, JP Morgan Chase is involved in green bonds as of 01-05-2024.</t>
+  </si>
+  <si>
+    <t>Yes, BNP Paribas is involved in green bonds as of 01-05-2024.</t>
+  </si>
+  <si>
+    <t>Japan has the most companies with some sort of credit policy related to biodiversity, with 8 companies.</t>
+  </si>
+  <si>
+    <t>Some facilities (anecdotal cases) is the most common strategy of Apparel, Accessories &amp; Luxury Goods companies with regards to the extent of carbon reduction programs in manufacturing operations as of 01-05-2024.</t>
+  </si>
+  <si>
+    <t>Yes, Coca Cola assesses the carbon emissions or energy consumption of its manufacturing operations, including suppliers' operations.</t>
+  </si>
+  <si>
+    <t>There is no evidence.</t>
+  </si>
+  <si>
+    <t>6.9% of Canadian companies are planning to expand its product footprint calculation to include all core products or include other stages (upstream Scope 3) as of 01-05-2024.</t>
+  </si>
+  <si>
+    <t>The most common level of commitment from companies with some sort of Green Building commitment is \"Average\" with 77 companies.</t>
+  </si>
+  <si>
+    <t>The US market is more common for companies to use of green or triple net leases as of 01-05-2024.</t>
+  </si>
+  <si>
+    <t>Yes, there are 2 companies in New Zealand that offer customers a green power option as of 01-05-2024:1. MERCURY NZ LIMITED2. MERIDIAN ENERGY LIMITED</t>
+  </si>
+  <si>
+    <t>China (CN)</t>
+  </si>
+  <si>
+    <t>Yes, there are 2 companies in Malaysia with external palm oil sustainable certification as of 01-05-2024.1. PBB GROUP BERHAD (Up to 30%)2. NESTLE (MALAYSIA) BERHAD (More than 60%)</t>
+  </si>
+  <si>
+    <t>The correlation between Apple's market cap and its MSCI ESG rating for the past 3 years is 0.09 as of 01-05-2024.</t>
+  </si>
+  <si>
+    <t>The correlation between Apple's EBIT and its MSCI ESG rating for the past 3 years is 0.78 as of 01-05-2024.</t>
+  </si>
+  <si>
+    <t>The correlation between the EBIT and the MSCI ESG ratings of Application Software companies in the US since January 2021 is 0.11.</t>
+  </si>
+  <si>
+    <t>The correlation between the Market Cap and the MSCI ESG ratings of companies in the Information Technology sector in the US since January 2021 is -0.09.</t>
+  </si>
+  <si>
+    <t>Siemens Energy AG in Germany has the lowest correlation between its EBIT and its MSCI ESG score as of 01-05-2024.</t>
   </si>
 </sst>
 </file>
@@ -1699,10 +1768,10 @@
     <xf numFmtId="180" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2107,7 +2176,7 @@
       <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -3351,7 +3420,7 @@
     <col min="7" max="7" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="1" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3364,7 +3433,7 @@
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -3374,7 +3443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="2" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3391,7 +3460,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="3" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3408,7 +3477,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="4" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3425,7 +3494,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="5" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3442,7 +3511,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="6" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3459,7 +3528,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="7" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3476,7 +3545,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="8" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3493,7 +3562,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" s="13" customFormat="1" ht="45" spans="1:7">
+    <row r="9" s="12" customFormat="1" ht="45" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3510,7 +3579,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="10" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3527,7 +3596,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="11" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3544,7 +3613,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="12" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3561,7 +3630,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="13" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3578,7 +3647,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="14" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3595,7 +3664,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="15" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3612,7 +3681,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="16" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3629,7 +3698,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" s="13" customFormat="1" ht="60" spans="1:7">
+    <row r="17" s="12" customFormat="1" ht="60" spans="1:7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3646,7 +3715,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="18" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3663,7 +3732,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="19" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3680,7 +3749,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="20" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3697,7 +3766,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="21" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3714,7 +3783,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="22" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3731,7 +3800,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" s="13" customFormat="1" ht="45" spans="1:7">
+    <row r="23" s="12" customFormat="1" ht="45" spans="1:7">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3748,7 +3817,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="24" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3765,7 +3834,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="25" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3782,7 +3851,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" s="13" customFormat="1" ht="409.5" spans="1:7">
+    <row r="26" s="12" customFormat="1" ht="409.5" spans="1:7">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3799,7 +3868,7 @@
       <c r="F26" s="15"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="27" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3816,7 +3885,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="28" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3833,7 +3902,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="29" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3850,7 +3919,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="30" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3867,7 +3936,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="31" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3884,7 +3953,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="32" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3901,7 +3970,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="33" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3918,7 +3987,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="34" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3935,7 +4004,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="35" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3952,7 +4021,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="36" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3969,7 +4038,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="37" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3986,7 +4055,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="38" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4003,7 +4072,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="39" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4020,7 +4089,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="40" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4037,7 +4106,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" s="13" customFormat="1" ht="195" spans="1:7">
+    <row r="41" s="12" customFormat="1" ht="195" spans="1:7">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4054,7 +4123,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="42" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4071,7 +4140,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="43" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4088,7 +4157,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="44" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4105,7 +4174,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="45" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4122,7 +4191,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="46" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4139,7 +4208,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="47" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4156,7 +4225,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" s="13" customFormat="1" ht="75" spans="1:7">
+    <row r="48" s="12" customFormat="1" ht="75" spans="1:7">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4173,7 +4242,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="49" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4190,7 +4259,7 @@
       <c r="F49" s="15"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="50" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4207,7 +4276,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="51" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4224,7 +4293,7 @@
       <c r="F51" s="15"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="52" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4241,7 +4310,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="53" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4258,7 +4327,7 @@
       <c r="F53" s="18"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="54" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4275,7 +4344,7 @@
       <c r="F54" s="15"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="55" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4292,7 +4361,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="56" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4309,7 +4378,7 @@
       <c r="F56" s="15"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="57" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4326,7 +4395,7 @@
       <c r="F57" s="15"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="58" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4343,7 +4412,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="59" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4360,7 +4429,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="60" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4377,7 +4446,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="61" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4394,7 +4463,7 @@
       <c r="F61" s="15"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="62" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4411,7 +4480,7 @@
       <c r="F62" s="15"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="63" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4428,7 +4497,7 @@
       <c r="F63" s="15"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" s="13" customFormat="1" ht="45" spans="1:7">
+    <row r="64" s="12" customFormat="1" ht="45" spans="1:7">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4445,7 +4514,7 @@
       <c r="F64" s="15"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="65" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4462,7 +4531,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="66" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4479,7 +4548,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="67" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4496,7 +4565,7 @@
       <c r="F67" s="15"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" s="13" customFormat="1" ht="45" spans="1:7">
+    <row r="68" s="12" customFormat="1" ht="45" spans="1:7">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4513,7 +4582,7 @@
       <c r="F68" s="15"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="69" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4530,7 +4599,7 @@
       <c r="F69" s="15"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="70" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4547,7 +4616,7 @@
       <c r="F70" s="15"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="71" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4564,7 +4633,7 @@
       <c r="F71" s="6"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="72" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4581,7 +4650,7 @@
       <c r="F72" s="15"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="73" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4598,7 +4667,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="74" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4615,7 +4684,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="75" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4632,7 +4701,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="76" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4649,7 +4718,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="77" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4666,7 +4735,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="78" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4683,7 +4752,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="79" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4700,7 +4769,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="80" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4717,7 +4786,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="81" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4734,7 +4803,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="82" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4751,7 +4820,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="83" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4766,7 +4835,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="84" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4783,7 +4852,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" s="13" customFormat="1" ht="15" spans="1:7">
+    <row r="85" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4800,7 +4869,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" s="13" customFormat="1" ht="30" spans="1:7">
+    <row r="86" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4828,17 +4897,18 @@
   <sheetPr/>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="3" width="75.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="75.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="56.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="75.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4855,7 +4925,7 @@
       <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -4865,7 +4935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:7">
+    <row r="2" ht="30" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4878,7 +4948,9 @@
       <c r="D2" s="4">
         <v>45637</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
     </row>
@@ -4895,11 +4967,13 @@
       <c r="D3" s="4">
         <v>45637</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="30" spans="1:7">
+    <row r="4" ht="60" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4912,7 +4986,9 @@
       <c r="D4" s="4">
         <v>45637</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
     </row>
@@ -4929,7 +5005,9 @@
       <c r="D5" s="4">
         <v>45637</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
     </row>
@@ -4946,7 +5024,9 @@
       <c r="D6" s="4">
         <v>45637</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
     </row>
@@ -4963,7 +5043,9 @@
       <c r="D7" s="4">
         <v>45637</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
     </row>
@@ -4980,7 +5062,9 @@
       <c r="D8" s="4">
         <v>45637</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
     </row>
@@ -4997,7 +5081,9 @@
       <c r="D9" s="4">
         <v>45637</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
     </row>
@@ -5014,7 +5100,9 @@
       <c r="D10" s="4">
         <v>45637</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
     </row>
@@ -5031,7 +5119,9 @@
       <c r="D11" s="4">
         <v>45637</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
     </row>
@@ -5048,7 +5138,9 @@
       <c r="D12" s="4">
         <v>45637</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
     </row>
@@ -5065,7 +5157,9 @@
       <c r="D13" s="4">
         <v>45637</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
     </row>
@@ -5082,7 +5176,9 @@
       <c r="D14" s="4">
         <v>45637</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
     </row>
@@ -5099,7 +5195,9 @@
       <c r="D15" s="4">
         <v>45637</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
     </row>
@@ -5116,11 +5214,13 @@
       <c r="D16" s="4">
         <v>45637</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" ht="15" spans="1:7">
+    <row r="17" ht="30" spans="1:7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5133,7 +5233,9 @@
       <c r="D17" s="4">
         <v>45637</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
     </row>
@@ -5150,7 +5252,9 @@
       <c r="D18" s="4">
         <v>45637</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
     </row>
@@ -5167,7 +5271,9 @@
       <c r="D19" s="4">
         <v>45637</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
     </row>
@@ -5184,7 +5290,9 @@
       <c r="D20" s="4">
         <v>45637</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="7"/>
     </row>
@@ -5201,7 +5309,9 @@
       <c r="D21" s="4">
         <v>45637</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
     </row>
@@ -5218,7 +5328,9 @@
       <c r="D22" s="4">
         <v>45637</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
     </row>
@@ -5235,7 +5347,9 @@
       <c r="D23" s="4">
         <v>45637</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
     </row>
@@ -5252,7 +5366,9 @@
       <c r="D24" s="4">
         <v>45637</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
     </row>
@@ -5269,7 +5385,9 @@
       <c r="D25" s="4">
         <v>45637</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
     </row>
@@ -5286,7 +5404,9 @@
       <c r="D26" s="4">
         <v>45637</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="7"/>
     </row>
@@ -5303,7 +5423,9 @@
       <c r="D27" s="4">
         <v>45637</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="F27" s="6"/>
       <c r="G27" s="7"/>
     </row>
@@ -5320,7 +5442,9 @@
       <c r="D28" s="4">
         <v>45637</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="F28" s="6"/>
       <c r="G28" s="7"/>
     </row>
@@ -5337,7 +5461,9 @@
       <c r="D29" s="4">
         <v>45637</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="F29" s="6"/>
       <c r="G29" s="7"/>
     </row>
@@ -5354,7 +5480,7 @@
       <c r="D30" s="4">
         <v>45637</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
     </row>
@@ -5371,7 +5497,7 @@
       <c r="D31" s="4">
         <v>45637</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7"/>
     </row>
@@ -5388,7 +5514,7 @@
       <c r="D32" s="4">
         <v>45637</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7"/>
     </row>
@@ -5405,7 +5531,7 @@
       <c r="D33" s="4">
         <v>45637</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="6"/>
       <c r="G33" s="7"/>
     </row>
@@ -5422,7 +5548,7 @@
       <c r="D34" s="4">
         <v>45637</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="2"/>
       <c r="F34" s="6"/>
       <c r="G34" s="7"/>
     </row>
@@ -5439,7 +5565,7 @@
       <c r="D35" s="4">
         <v>45637</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="6"/>
       <c r="G35" s="7"/>
     </row>
@@ -5456,7 +5582,7 @@
       <c r="D36" s="4">
         <v>45637</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="6"/>
       <c r="G36" s="7"/>
     </row>
@@ -5473,7 +5599,7 @@
       <c r="D37" s="4">
         <v>45637</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="E37" s="2"/>
       <c r="F37" s="6"/>
       <c r="G37" s="7"/>
     </row>
@@ -5490,7 +5616,7 @@
       <c r="D38" s="4">
         <v>45637</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="6"/>
       <c r="G38" s="7"/>
     </row>
@@ -5507,7 +5633,7 @@
       <c r="D39" s="4">
         <v>45637</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="6"/>
       <c r="G39" s="7"/>
     </row>
@@ -5524,7 +5650,7 @@
       <c r="D40" s="4">
         <v>45637</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="6"/>
       <c r="G40" s="7"/>
     </row>
@@ -5541,7 +5667,7 @@
       <c r="D41" s="4">
         <v>45637</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="6"/>
       <c r="G41" s="7"/>
     </row>
@@ -5558,7 +5684,7 @@
       <c r="D42" s="4">
         <v>45637</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="6"/>
       <c r="G42" s="7"/>
     </row>
@@ -5575,7 +5701,7 @@
       <c r="D43" s="4">
         <v>45637</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="6"/>
       <c r="G43" s="7"/>
     </row>
@@ -5592,7 +5718,7 @@
       <c r="D44" s="4">
         <v>45637</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="6"/>
       <c r="G44" s="7"/>
     </row>
@@ -5609,7 +5735,7 @@
       <c r="D45" s="4">
         <v>45637</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="E45" s="2"/>
       <c r="F45" s="6"/>
       <c r="G45" s="7"/>
     </row>
@@ -5626,7 +5752,7 @@
       <c r="D46" s="4">
         <v>45637</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="2"/>
       <c r="F46" s="6"/>
       <c r="G46" s="7"/>
     </row>
@@ -5643,7 +5769,7 @@
       <c r="D47" s="4">
         <v>45637</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="6"/>
       <c r="G47" s="7"/>
     </row>
@@ -5660,7 +5786,7 @@
       <c r="D48" s="4">
         <v>45637</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="6"/>
       <c r="G48" s="7"/>
     </row>
@@ -5677,7 +5803,7 @@
       <c r="D49" s="4">
         <v>45637</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="2"/>
       <c r="F49" s="6"/>
       <c r="G49" s="7"/>
     </row>
@@ -5694,7 +5820,7 @@
       <c r="D50" s="4">
         <v>45637</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="2"/>
       <c r="F50" s="6"/>
       <c r="G50" s="7"/>
     </row>
@@ -5711,7 +5837,7 @@
       <c r="D51" s="4">
         <v>45637</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="6"/>
       <c r="G51" s="7"/>
     </row>
@@ -5728,7 +5854,7 @@
       <c r="D52" s="4">
         <v>45637</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="2"/>
       <c r="F52" s="6"/>
       <c r="G52" s="7"/>
     </row>
@@ -5745,7 +5871,7 @@
       <c r="D53" s="4">
         <v>45637</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="2"/>
       <c r="F53" s="6"/>
       <c r="G53" s="7"/>
     </row>
@@ -5762,7 +5888,7 @@
       <c r="D54" s="4">
         <v>45637</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="2"/>
       <c r="F54" s="6"/>
       <c r="G54" s="7"/>
     </row>
@@ -5779,7 +5905,7 @@
       <c r="D55" s="4">
         <v>45637</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="2"/>
       <c r="F55" s="6"/>
       <c r="G55" s="7"/>
     </row>
@@ -5796,7 +5922,7 @@
       <c r="D56" s="4">
         <v>45637</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="2"/>
       <c r="F56" s="6"/>
       <c r="G56" s="7"/>
     </row>
@@ -5813,7 +5939,7 @@
       <c r="D57" s="4">
         <v>45637</v>
       </c>
-      <c r="E57" s="5"/>
+      <c r="E57" s="2"/>
       <c r="F57" s="6"/>
       <c r="G57" s="7"/>
     </row>
@@ -5830,7 +5956,7 @@
       <c r="D58" s="4">
         <v>45637</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="2"/>
       <c r="F58" s="6"/>
       <c r="G58" s="7"/>
     </row>
@@ -5859,13 +5985,17 @@
   <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="85.125" customWidth="1"/>
+    <col min="3" max="3" width="44.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="409.5" spans="1:7">
+    <row r="1" ht="135" spans="1:7">
       <c r="A1" s="1">
         <v>58</v>
       </c>
@@ -5882,7 +6012,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" ht="105" spans="1:7">
+    <row r="2" ht="15" spans="1:7">
       <c r="A2" s="1">
         <v>59</v>
       </c>
@@ -5899,7 +6029,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="105" spans="1:7">
+    <row r="3" ht="15" spans="1:7">
       <c r="A3" s="1">
         <v>60</v>
       </c>
@@ -5916,7 +6046,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="120" spans="1:7">
+    <row r="4" ht="15" spans="1:7">
       <c r="A4" s="1">
         <v>61</v>
       </c>
@@ -5933,7 +6063,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" ht="180" spans="1:7">
+    <row r="5" ht="30" spans="1:7">
       <c r="A5" s="1">
         <v>62</v>
       </c>
@@ -5950,7 +6080,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" ht="150" spans="1:7">
+    <row r="6" ht="30" spans="1:7">
       <c r="A6" s="1">
         <v>63</v>
       </c>
@@ -5967,7 +6097,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" ht="409.5" spans="1:7">
+    <row r="7" ht="120" spans="1:7">
       <c r="A7" s="1">
         <v>64</v>
       </c>
@@ -5984,7 +6114,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" ht="255" spans="1:7">
+    <row r="8" ht="45" spans="1:7">
       <c r="A8" s="1">
         <v>65</v>
       </c>
@@ -6001,7 +6131,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" ht="405" spans="1:7">
+    <row r="9" ht="45" spans="1:7">
       <c r="A9" s="1">
         <v>66</v>
       </c>
@@ -6018,7 +6148,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" ht="409.5" spans="1:7">
+    <row r="10" ht="45" spans="1:7">
       <c r="A10" s="1">
         <v>67</v>
       </c>
@@ -6035,7 +6165,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" ht="120" spans="1:7">
+    <row r="11" ht="30" spans="1:7">
       <c r="A11" s="1">
         <v>68</v>
       </c>
@@ -6052,7 +6182,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" ht="270" spans="1:7">
+    <row r="12" ht="45" spans="1:7">
       <c r="A12" s="1">
         <v>69</v>
       </c>
@@ -6069,7 +6199,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" ht="409.5" spans="1:7">
+    <row r="13" ht="75" spans="1:7">
       <c r="A13" s="1">
         <v>70</v>
       </c>
@@ -6086,7 +6216,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" ht="409.5" spans="1:7">
+    <row r="14" ht="75" spans="1:7">
       <c r="A14" s="1">
         <v>71</v>
       </c>

--- a/src/test/resources/Excel Files/Question Prepared For Testing.xlsx
+++ b/src/test/resources/Excel Files/Question Prepared For Testing.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="2" r:id="rId1"/>
     <sheet name="Set 1 Questions" sheetId="3" r:id="rId2"/>
     <sheet name="Gustov Questions" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="273">
   <si>
     <t>S. No.</t>
   </si>
@@ -949,73 +950,16 @@
     <t>0 (Since we loaded only the data provided by the MSCI)</t>
   </si>
   <si>
-    <t>No, Onex Corporation does not have an ongoing target to reduce carbon emissions as of 01-05-2024.</t>
-  </si>
-  <si>
-    <t>The top 3 sub industries with the most aggressive efforts to use clean sources of energy are:
-1. Electric Utilities
-2. Renewable Electricity
-3. Paper &amp; Plastic Packaging Products &amp; Materials</t>
-  </si>
-  <si>
-    <t>There are 87 companies that have listed climate change as a business risk factor in their mainstream financial reporting as of 01-05-2024.</t>
-  </si>
-  <si>
-    <t>There are 98 companies that include climate change as a risk factor in their financial statements as of 01-05-2024.</t>
-  </si>
-  <si>
-    <t>No, the Bank of Baroda is not involved in green bonds as of 01-05-2024.</t>
-  </si>
-  <si>
-    <t>Yes, JP Morgan Chase is involved in green bonds as of 01-05-2024.</t>
-  </si>
-  <si>
-    <t>Yes, BNP Paribas is involved in green bonds as of 01-05-2024.</t>
-  </si>
-  <si>
-    <t>Japan has the most companies with some sort of credit policy related to biodiversity, with 8 companies.</t>
-  </si>
-  <si>
-    <t>Some facilities (anecdotal cases) is the most common strategy of Apparel, Accessories &amp; Luxury Goods companies with regards to the extent of carbon reduction programs in manufacturing operations as of 01-05-2024.</t>
-  </si>
-  <si>
-    <t>Yes, Coca Cola assesses the carbon emissions or energy consumption of its manufacturing operations, including suppliers' operations.</t>
-  </si>
-  <si>
-    <t>There is no evidence.</t>
-  </si>
-  <si>
-    <t>6.9% of Canadian companies are planning to expand its product footprint calculation to include all core products or include other stages (upstream Scope 3) as of 01-05-2024.</t>
-  </si>
-  <si>
-    <t>The most common level of commitment from companies with some sort of Green Building commitment is \"Average\" with 77 companies.</t>
-  </si>
-  <si>
-    <t>The US market is more common for companies to use of green or triple net leases as of 01-05-2024.</t>
-  </si>
-  <si>
-    <t>Yes, there are 2 companies in New Zealand that offer customers a green power option as of 01-05-2024:1. MERCURY NZ LIMITED2. MERIDIAN ENERGY LIMITED</t>
-  </si>
-  <si>
-    <t>China (CN)</t>
-  </si>
-  <si>
-    <t>Yes, there are 2 companies in Malaysia with external palm oil sustainable certification as of 01-05-2024.1. PBB GROUP BERHAD (Up to 30%)2. NESTLE (MALAYSIA) BERHAD (More than 60%)</t>
-  </si>
-  <si>
-    <t>The correlation between Apple's market cap and its MSCI ESG rating for the past 3 years is 0.09 as of 01-05-2024.</t>
-  </si>
-  <si>
-    <t>The correlation between Apple's EBIT and its MSCI ESG rating for the past 3 years is 0.78 as of 01-05-2024.</t>
-  </si>
-  <si>
-    <t>The correlation between the EBIT and the MSCI ESG ratings of Application Software companies in the US since January 2021 is 0.11.</t>
-  </si>
-  <si>
-    <t>The correlation between the Market Cap and the MSCI ESG ratings of companies in the Information Technology sector in the US since January 2021 is -0.09.</t>
-  </si>
-  <si>
-    <t>Siemens Energy AG in Germany has the lowest correlation between its EBIT and its MSCI ESG score as of 01-05-2024.</t>
+    <t>What % of Fund 3 assets are assessed as Not Aligned under the Paris Aligned Investment Initiative (PAII)’s Net Zero Investment Framework (NZIF)? as of 08-07-2024</t>
+  </si>
+  <si>
+    <t>Which Fund has a higher % of assets invested in companies deemed as Higher Impact by the PAII's NZIF? as of 08-07-2024</t>
+  </si>
+  <si>
+    <t>How many companies in Fund 4 are both considered Higher Impact and Not Aligned? as of 08-07-2024</t>
+  </si>
+  <si>
+    <t>Which Fund has a LOWER % of assets invested in companies both deemed as Higher Impact and Aligned? as of 08-07-2024</t>
   </si>
 </sst>
 </file>
@@ -1050,13 +994,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1748,13 +1692,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1803,7 +1747,7 @@
     <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2199,7 +2143,7 @@
       <c r="D2" s="24">
         <v>45637</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="25"/>
       <c r="G2" s="3"/>
     </row>
@@ -2216,7 +2160,7 @@
       <c r="D3" s="24">
         <v>45637</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="25"/>
       <c r="G3" s="3"/>
     </row>
@@ -2233,7 +2177,7 @@
       <c r="D4" s="24">
         <v>45637</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="25"/>
       <c r="G4" s="3"/>
     </row>
@@ -2250,7 +2194,7 @@
       <c r="D5" s="24">
         <v>45637</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="25"/>
       <c r="G5" s="3"/>
     </row>
@@ -2267,7 +2211,7 @@
       <c r="D6" s="24">
         <v>45637</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="25"/>
       <c r="G6" s="3"/>
     </row>
@@ -2284,7 +2228,7 @@
       <c r="D7" s="24">
         <v>45637</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="25"/>
       <c r="G7" s="3"/>
     </row>
@@ -2301,7 +2245,7 @@
       <c r="D8" s="24">
         <v>45637</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="25"/>
       <c r="G8" s="3"/>
     </row>
@@ -2318,7 +2262,7 @@
       <c r="D9" s="24">
         <v>45637</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="25"/>
       <c r="G9" s="3"/>
     </row>
@@ -2335,7 +2279,7 @@
       <c r="D10" s="24">
         <v>45637</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="25"/>
       <c r="G10" s="3"/>
     </row>
@@ -2352,7 +2296,7 @@
       <c r="D11" s="24">
         <v>45637</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="25"/>
       <c r="G11" s="3"/>
     </row>
@@ -2369,7 +2313,7 @@
       <c r="D12" s="24">
         <v>45637</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="25"/>
       <c r="G12" s="3"/>
     </row>
@@ -2386,7 +2330,7 @@
       <c r="D13" s="24">
         <v>45637</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="25"/>
       <c r="G13" s="3"/>
     </row>
@@ -2403,7 +2347,7 @@
       <c r="D14" s="24">
         <v>45637</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="25"/>
       <c r="G14" s="3"/>
     </row>
@@ -2420,7 +2364,7 @@
       <c r="D15" s="24">
         <v>45637</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="25"/>
       <c r="G15" s="3"/>
     </row>
@@ -2437,7 +2381,7 @@
       <c r="D16" s="24">
         <v>45637</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="25"/>
       <c r="G16" s="3"/>
     </row>
@@ -2454,7 +2398,7 @@
       <c r="D17" s="24">
         <v>45637</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="25"/>
       <c r="G17" s="3"/>
     </row>
@@ -2471,7 +2415,7 @@
       <c r="D18" s="24">
         <v>45637</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="25"/>
       <c r="G18" s="3"/>
     </row>
@@ -2488,7 +2432,7 @@
       <c r="D19" s="24">
         <v>45637</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="25"/>
       <c r="G19" s="3"/>
     </row>
@@ -2505,7 +2449,7 @@
       <c r="D20" s="24">
         <v>45637</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="25"/>
       <c r="G20" s="3"/>
     </row>
@@ -2522,7 +2466,7 @@
       <c r="D21" s="24">
         <v>45637</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="25"/>
       <c r="G21" s="3"/>
     </row>
@@ -2539,7 +2483,7 @@
       <c r="D22" s="24">
         <v>45637</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="25"/>
       <c r="G22" s="3"/>
     </row>
@@ -2556,7 +2500,7 @@
       <c r="D23" s="24">
         <v>45637</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="25"/>
       <c r="G23" s="3"/>
     </row>
@@ -2573,7 +2517,7 @@
       <c r="D24" s="24">
         <v>45637</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="25"/>
       <c r="G24" s="3"/>
     </row>
@@ -2590,7 +2534,7 @@
       <c r="D25" s="24">
         <v>45637</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="25"/>
       <c r="G25" s="3"/>
     </row>
@@ -2607,7 +2551,7 @@
       <c r="D26" s="24">
         <v>45637</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="25"/>
       <c r="G26" s="3"/>
     </row>
@@ -2624,7 +2568,7 @@
       <c r="D27" s="24">
         <v>45637</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="25"/>
       <c r="G27" s="3"/>
     </row>
@@ -2641,7 +2585,7 @@
       <c r="D28" s="24">
         <v>45637</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="25"/>
       <c r="G28" s="3"/>
     </row>
@@ -2658,7 +2602,7 @@
       <c r="D29" s="24">
         <v>45637</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="25"/>
       <c r="G29" s="3"/>
     </row>
@@ -2675,7 +2619,7 @@
       <c r="D30" s="24">
         <v>45637</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="25"/>
       <c r="G30" s="3"/>
     </row>
@@ -2692,7 +2636,7 @@
       <c r="D31" s="24">
         <v>45637</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="25"/>
       <c r="G31" s="3"/>
     </row>
@@ -2709,7 +2653,7 @@
       <c r="D32" s="24">
         <v>45637</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="25"/>
       <c r="G32" s="3"/>
     </row>
@@ -2726,7 +2670,7 @@
       <c r="D33" s="24">
         <v>45637</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="25"/>
       <c r="G33" s="3"/>
     </row>
@@ -2743,7 +2687,7 @@
       <c r="D34" s="24">
         <v>45637</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="25"/>
       <c r="G34" s="3"/>
     </row>
@@ -2760,7 +2704,7 @@
       <c r="D35" s="24">
         <v>45637</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="25"/>
       <c r="G35" s="3"/>
     </row>
@@ -2777,7 +2721,7 @@
       <c r="D36" s="24">
         <v>45637</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="25"/>
       <c r="G36" s="3"/>
     </row>
@@ -2794,7 +2738,7 @@
       <c r="D37" s="24">
         <v>45637</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="25"/>
       <c r="G37" s="3"/>
     </row>
@@ -2811,7 +2755,7 @@
       <c r="D38" s="24">
         <v>45637</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="25"/>
       <c r="G38" s="3"/>
     </row>
@@ -2828,7 +2772,7 @@
       <c r="D39" s="24">
         <v>45637</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="25"/>
       <c r="G39" s="3"/>
     </row>
@@ -2845,7 +2789,7 @@
       <c r="D40" s="24">
         <v>45637</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="25"/>
       <c r="G40" s="3"/>
     </row>
@@ -2862,7 +2806,7 @@
       <c r="D41" s="24">
         <v>45637</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="25"/>
       <c r="G41" s="3"/>
     </row>
@@ -2879,7 +2823,7 @@
       <c r="D42" s="24">
         <v>45637</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="25"/>
       <c r="G42" s="3"/>
     </row>
@@ -2896,7 +2840,7 @@
       <c r="D43" s="24">
         <v>45637</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="25"/>
       <c r="G43" s="3"/>
     </row>
@@ -2913,7 +2857,7 @@
       <c r="D44" s="24">
         <v>45637</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="25"/>
       <c r="G44" s="3"/>
     </row>
@@ -2930,7 +2874,7 @@
       <c r="D45" s="24">
         <v>45637</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="E45" s="7"/>
       <c r="F45" s="25"/>
       <c r="G45" s="3"/>
     </row>
@@ -2947,7 +2891,7 @@
       <c r="D46" s="24">
         <v>45637</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="7"/>
       <c r="F46" s="25"/>
       <c r="G46" s="3"/>
     </row>
@@ -2964,7 +2908,7 @@
       <c r="D47" s="24">
         <v>45637</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="7"/>
       <c r="F47" s="25"/>
       <c r="G47" s="3"/>
     </row>
@@ -2981,7 +2925,7 @@
       <c r="D48" s="24">
         <v>45637</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="7"/>
       <c r="F48" s="25"/>
       <c r="G48" s="3"/>
     </row>
@@ -2998,7 +2942,7 @@
       <c r="D49" s="24">
         <v>45637</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="25"/>
       <c r="G49" s="3"/>
     </row>
@@ -3015,7 +2959,7 @@
       <c r="D50" s="24">
         <v>45637</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="7"/>
       <c r="F50" s="25"/>
       <c r="G50" s="3"/>
     </row>
@@ -3032,7 +2976,7 @@
       <c r="D51" s="24">
         <v>45637</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="7"/>
       <c r="F51" s="25"/>
       <c r="G51" s="3"/>
     </row>
@@ -3049,7 +2993,7 @@
       <c r="D52" s="24">
         <v>45637</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="7"/>
       <c r="F52" s="25"/>
       <c r="G52" s="3"/>
     </row>
@@ -3066,7 +3010,7 @@
       <c r="D53" s="24">
         <v>45637</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="7"/>
       <c r="F53" s="25"/>
       <c r="G53" s="3"/>
     </row>
@@ -3083,7 +3027,7 @@
       <c r="D54" s="24">
         <v>45637</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="7"/>
       <c r="F54" s="25"/>
       <c r="G54" s="3"/>
     </row>
@@ -3100,7 +3044,7 @@
       <c r="D55" s="24">
         <v>45637</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="7"/>
       <c r="F55" s="25"/>
       <c r="G55" s="3"/>
     </row>
@@ -3117,7 +3061,7 @@
       <c r="D56" s="24">
         <v>45637</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="7"/>
       <c r="F56" s="25"/>
       <c r="G56" s="3"/>
     </row>
@@ -3134,7 +3078,7 @@
       <c r="D57" s="24">
         <v>45637</v>
       </c>
-      <c r="E57" s="5"/>
+      <c r="E57" s="7"/>
       <c r="F57" s="25"/>
       <c r="G57" s="3"/>
     </row>
@@ -3151,7 +3095,7 @@
       <c r="D58" s="24">
         <v>45637</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="7"/>
       <c r="F58" s="25"/>
       <c r="G58" s="3"/>
     </row>
@@ -3168,7 +3112,7 @@
       <c r="D59" s="24">
         <v>45637</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="7"/>
       <c r="F59" s="25"/>
       <c r="G59" s="3"/>
     </row>
@@ -3185,7 +3129,7 @@
       <c r="D60" s="24">
         <v>45637</v>
       </c>
-      <c r="E60" s="5"/>
+      <c r="E60" s="7"/>
       <c r="F60" s="25"/>
       <c r="G60" s="3"/>
     </row>
@@ -3202,7 +3146,7 @@
       <c r="D61" s="24">
         <v>45637</v>
       </c>
-      <c r="E61" s="5"/>
+      <c r="E61" s="7"/>
       <c r="F61" s="25"/>
       <c r="G61" s="3"/>
     </row>
@@ -3219,7 +3163,7 @@
       <c r="D62" s="24">
         <v>45637</v>
       </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="7"/>
       <c r="F62" s="25"/>
       <c r="G62" s="3"/>
     </row>
@@ -3236,7 +3180,7 @@
       <c r="D63" s="24">
         <v>45637</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="7"/>
       <c r="F63" s="25"/>
       <c r="G63" s="3"/>
     </row>
@@ -3253,7 +3197,7 @@
       <c r="D64" s="24">
         <v>45637</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="7"/>
       <c r="F64" s="25"/>
       <c r="G64" s="3"/>
     </row>
@@ -3270,7 +3214,7 @@
       <c r="D65" s="24">
         <v>45637</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="7"/>
       <c r="F65" s="25"/>
       <c r="G65" s="3"/>
     </row>
@@ -3287,7 +3231,7 @@
       <c r="D66" s="24">
         <v>45637</v>
       </c>
-      <c r="E66" s="5"/>
+      <c r="E66" s="7"/>
       <c r="F66" s="25"/>
       <c r="G66" s="3"/>
     </row>
@@ -3304,7 +3248,7 @@
       <c r="D67" s="24">
         <v>45637</v>
       </c>
-      <c r="E67" s="5"/>
+      <c r="E67" s="7"/>
       <c r="F67" s="25"/>
       <c r="G67" s="3"/>
     </row>
@@ -3321,7 +3265,7 @@
       <c r="D68" s="24">
         <v>45637</v>
       </c>
-      <c r="E68" s="5"/>
+      <c r="E68" s="7"/>
       <c r="F68" s="25"/>
       <c r="G68" s="3"/>
     </row>
@@ -3338,7 +3282,7 @@
       <c r="D69" s="24">
         <v>45637</v>
       </c>
-      <c r="E69" s="5"/>
+      <c r="E69" s="7"/>
       <c r="F69" s="25"/>
       <c r="G69" s="3"/>
     </row>
@@ -3355,7 +3299,7 @@
       <c r="D70" s="24">
         <v>45637</v>
       </c>
-      <c r="E70" s="5"/>
+      <c r="E70" s="7"/>
       <c r="F70" s="25"/>
       <c r="G70" s="3"/>
     </row>
@@ -3372,7 +3316,7 @@
       <c r="D71" s="24">
         <v>45637</v>
       </c>
-      <c r="E71" s="5"/>
+      <c r="E71" s="7"/>
       <c r="F71" s="25"/>
       <c r="G71" s="3"/>
     </row>
@@ -3389,7 +3333,7 @@
       <c r="D72" s="24">
         <v>45637</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="E72" s="7"/>
       <c r="F72" s="25"/>
       <c r="G72" s="3"/>
     </row>
@@ -3456,9 +3400,9 @@
       <c r="D2" s="4">
         <v>45637</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A3" s="1">
@@ -3473,9 +3417,9 @@
       <c r="D3" s="4">
         <v>45637</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A4" s="1">
@@ -3490,9 +3434,9 @@
       <c r="D4" s="4">
         <v>45637</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A5" s="1">
@@ -3507,9 +3451,9 @@
       <c r="D5" s="4">
         <v>45637</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A6" s="1">
@@ -3524,9 +3468,9 @@
       <c r="D6" s="4">
         <v>45637</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A7" s="1">
@@ -3541,9 +3485,9 @@
       <c r="D7" s="4">
         <v>45637</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A8" s="1">
@@ -3558,9 +3502,9 @@
       <c r="D8" s="4">
         <v>45637</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" s="12" customFormat="1" ht="45" spans="1:7">
       <c r="A9" s="1">
@@ -3575,9 +3519,9 @@
       <c r="D9" s="4">
         <v>45637</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A10" s="1">
@@ -3592,9 +3536,9 @@
       <c r="D10" s="4">
         <v>45637</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A11" s="1">
@@ -3609,9 +3553,9 @@
       <c r="D11" s="4">
         <v>45637</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A12" s="1">
@@ -3626,9 +3570,9 @@
       <c r="D12" s="4">
         <v>45637</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A13" s="1">
@@ -3643,9 +3587,9 @@
       <c r="D13" s="4">
         <v>45637</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A14" s="1">
@@ -3660,9 +3604,9 @@
       <c r="D14" s="4">
         <v>45637</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A15" s="1">
@@ -3677,9 +3621,9 @@
       <c r="D15" s="4">
         <v>45637</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A16" s="1">
@@ -3694,9 +3638,9 @@
       <c r="D16" s="4">
         <v>45637</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" s="12" customFormat="1" ht="60" spans="1:7">
       <c r="A17" s="1">
@@ -3712,8 +3656,8 @@
         <v>45637</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A18" s="1">
@@ -3728,9 +3672,9 @@
       <c r="D18" s="4">
         <v>45637</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A19" s="1">
@@ -3745,9 +3689,9 @@
       <c r="D19" s="4">
         <v>45637</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A20" s="1">
@@ -3762,9 +3706,9 @@
       <c r="D20" s="4">
         <v>45637</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A21" s="1">
@@ -3779,9 +3723,9 @@
       <c r="D21" s="4">
         <v>45637</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A22" s="1">
@@ -3796,9 +3740,9 @@
       <c r="D22" s="4">
         <v>45637</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" s="12" customFormat="1" ht="45" spans="1:7">
       <c r="A23" s="1">
@@ -3813,9 +3757,9 @@
       <c r="D23" s="4">
         <v>45637</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A24" s="1">
@@ -3830,9 +3774,9 @@
       <c r="D24" s="4">
         <v>45637</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A25" s="1">
@@ -3847,9 +3791,9 @@
       <c r="D25" s="4">
         <v>45637</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" s="12" customFormat="1" ht="409.5" spans="1:7">
       <c r="A26" s="1">
@@ -3864,9 +3808,9 @@
       <c r="D26" s="4">
         <v>45637</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="7"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A27" s="1">
@@ -3881,9 +3825,9 @@
       <c r="D27" s="4">
         <v>45637</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A28" s="1">
@@ -3898,9 +3842,9 @@
       <c r="D28" s="4">
         <v>45637</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A29" s="1">
@@ -3915,9 +3859,9 @@
       <c r="D29" s="4">
         <v>45637</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A30" s="1">
@@ -3932,9 +3876,9 @@
       <c r="D30" s="4">
         <v>45637</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A31" s="1">
@@ -3949,9 +3893,9 @@
       <c r="D31" s="4">
         <v>45637</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A32" s="1">
@@ -3966,9 +3910,9 @@
       <c r="D32" s="4">
         <v>45637</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A33" s="1">
@@ -3983,9 +3927,9 @@
       <c r="D33" s="4">
         <v>45637</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A34" s="1">
@@ -4000,9 +3944,9 @@
       <c r="D34" s="4">
         <v>45637</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A35" s="1">
@@ -4017,9 +3961,9 @@
       <c r="D35" s="4">
         <v>45637</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A36" s="1">
@@ -4034,9 +3978,9 @@
       <c r="D36" s="4">
         <v>45637</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A37" s="1">
@@ -4051,9 +3995,9 @@
       <c r="D37" s="4">
         <v>45637</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A38" s="1">
@@ -4068,9 +4012,9 @@
       <c r="D38" s="4">
         <v>45637</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A39" s="1">
@@ -4085,9 +4029,9 @@
       <c r="D39" s="4">
         <v>45637</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A40" s="1">
@@ -4102,9 +4046,9 @@
       <c r="D40" s="4">
         <v>45637</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" s="12" customFormat="1" ht="195" spans="1:7">
       <c r="A41" s="1">
@@ -4119,9 +4063,9 @@
       <c r="D41" s="4">
         <v>45637</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A42" s="1">
@@ -4136,9 +4080,9 @@
       <c r="D42" s="4">
         <v>45637</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A43" s="1">
@@ -4153,9 +4097,9 @@
       <c r="D43" s="4">
         <v>45637</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A44" s="1">
@@ -4170,9 +4114,9 @@
       <c r="D44" s="4">
         <v>45637</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A45" s="1">
@@ -4187,9 +4131,9 @@
       <c r="D45" s="4">
         <v>45637</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A46" s="1">
@@ -4204,9 +4148,9 @@
       <c r="D46" s="4">
         <v>45637</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A47" s="1">
@@ -4221,9 +4165,9 @@
       <c r="D47" s="4">
         <v>45637</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="7"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="7"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" s="12" customFormat="1" ht="75" spans="1:7">
       <c r="A48" s="1">
@@ -4238,9 +4182,9 @@
       <c r="D48" s="4">
         <v>45637</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A49" s="1">
@@ -4255,9 +4199,9 @@
       <c r="D49" s="4">
         <v>45637</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="7"/>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A50" s="1">
@@ -4272,9 +4216,9 @@
       <c r="D50" s="4">
         <v>45637</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A51" s="1">
@@ -4289,9 +4233,9 @@
       <c r="D51" s="4">
         <v>45637</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="7"/>
       <c r="F51" s="15"/>
-      <c r="G51" s="7"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A52" s="1">
@@ -4306,9 +4250,9 @@
       <c r="D52" s="4">
         <v>45637</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A53" s="1">
@@ -4323,9 +4267,9 @@
       <c r="D53" s="4">
         <v>45637</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="7"/>
       <c r="F53" s="18"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A54" s="1">
@@ -4340,9 +4284,9 @@
       <c r="D54" s="4">
         <v>45637</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="7"/>
       <c r="F54" s="15"/>
-      <c r="G54" s="7"/>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A55" s="1">
@@ -4357,9 +4301,9 @@
       <c r="D55" s="4">
         <v>45637</v>
       </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A56" s="1">
@@ -4374,9 +4318,9 @@
       <c r="D56" s="4">
         <v>45637</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="7"/>
       <c r="F56" s="15"/>
-      <c r="G56" s="7"/>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A57" s="1">
@@ -4391,9 +4335,9 @@
       <c r="D57" s="4">
         <v>45637</v>
       </c>
-      <c r="E57" s="5"/>
+      <c r="E57" s="7"/>
       <c r="F57" s="15"/>
-      <c r="G57" s="7"/>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A58" s="1">
@@ -4408,9 +4352,9 @@
       <c r="D58" s="4">
         <v>45637</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A59" s="1">
@@ -4425,9 +4369,9 @@
       <c r="D59" s="4">
         <v>45637</v>
       </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A60" s="1">
@@ -4442,9 +4386,9 @@
       <c r="D60" s="4">
         <v>45637</v>
       </c>
-      <c r="E60" s="5"/>
+      <c r="E60" s="7"/>
       <c r="F60" s="15"/>
-      <c r="G60" s="7"/>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A61" s="1">
@@ -4459,9 +4403,9 @@
       <c r="D61" s="4">
         <v>45637</v>
       </c>
-      <c r="E61" s="5"/>
+      <c r="E61" s="7"/>
       <c r="F61" s="15"/>
-      <c r="G61" s="7"/>
+      <c r="G61" s="6"/>
     </row>
     <row r="62" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A62" s="1">
@@ -4476,9 +4420,9 @@
       <c r="D62" s="4">
         <v>45637</v>
       </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="7"/>
       <c r="F62" s="15"/>
-      <c r="G62" s="7"/>
+      <c r="G62" s="6"/>
     </row>
     <row r="63" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A63" s="1">
@@ -4493,9 +4437,9 @@
       <c r="D63" s="4">
         <v>45637</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="7"/>
       <c r="F63" s="15"/>
-      <c r="G63" s="7"/>
+      <c r="G63" s="6"/>
     </row>
     <row r="64" s="12" customFormat="1" ht="45" spans="1:7">
       <c r="A64" s="1">
@@ -4510,9 +4454,9 @@
       <c r="D64" s="4">
         <v>45637</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="7"/>
       <c r="F64" s="15"/>
-      <c r="G64" s="7"/>
+      <c r="G64" s="6"/>
     </row>
     <row r="65" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A65" s="1">
@@ -4527,9 +4471,9 @@
       <c r="D65" s="4">
         <v>45637</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="6"/>
     </row>
     <row r="66" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A66" s="1">
@@ -4544,9 +4488,9 @@
       <c r="D66" s="4">
         <v>45637</v>
       </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="6"/>
     </row>
     <row r="67" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A67" s="1">
@@ -4561,9 +4505,9 @@
       <c r="D67" s="4">
         <v>45637</v>
       </c>
-      <c r="E67" s="5"/>
+      <c r="E67" s="7"/>
       <c r="F67" s="15"/>
-      <c r="G67" s="7"/>
+      <c r="G67" s="6"/>
     </row>
     <row r="68" s="12" customFormat="1" ht="45" spans="1:7">
       <c r="A68" s="1">
@@ -4578,9 +4522,9 @@
       <c r="D68" s="4">
         <v>45637</v>
       </c>
-      <c r="E68" s="5"/>
+      <c r="E68" s="7"/>
       <c r="F68" s="15"/>
-      <c r="G68" s="7"/>
+      <c r="G68" s="6"/>
     </row>
     <row r="69" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A69" s="1">
@@ -4595,9 +4539,9 @@
       <c r="D69" s="4">
         <v>45637</v>
       </c>
-      <c r="E69" s="5"/>
+      <c r="E69" s="7"/>
       <c r="F69" s="15"/>
-      <c r="G69" s="7"/>
+      <c r="G69" s="6"/>
     </row>
     <row r="70" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A70" s="1">
@@ -4612,9 +4556,9 @@
       <c r="D70" s="4">
         <v>45637</v>
       </c>
-      <c r="E70" s="5"/>
+      <c r="E70" s="7"/>
       <c r="F70" s="15"/>
-      <c r="G70" s="7"/>
+      <c r="G70" s="6"/>
     </row>
     <row r="71" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A71" s="1">
@@ -4629,9 +4573,9 @@
       <c r="D71" s="4">
         <v>45637</v>
       </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="6"/>
     </row>
     <row r="72" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A72" s="1">
@@ -4646,9 +4590,9 @@
       <c r="D72" s="4">
         <v>45637</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="E72" s="7"/>
       <c r="F72" s="15"/>
-      <c r="G72" s="7"/>
+      <c r="G72" s="6"/>
     </row>
     <row r="73" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A73" s="1">
@@ -4663,9 +4607,9 @@
       <c r="D73" s="4">
         <v>45637</v>
       </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="6"/>
     </row>
     <row r="74" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A74" s="1">
@@ -4680,9 +4624,9 @@
       <c r="D74" s="4">
         <v>45637</v>
       </c>
-      <c r="E74" s="5"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="6"/>
     </row>
     <row r="75" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A75" s="1">
@@ -4697,9 +4641,9 @@
       <c r="D75" s="4">
         <v>45637</v>
       </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="6"/>
     </row>
     <row r="76" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A76" s="1">
@@ -4714,9 +4658,9 @@
       <c r="D76" s="4">
         <v>45637</v>
       </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="6"/>
     </row>
     <row r="77" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A77" s="1">
@@ -4731,9 +4675,9 @@
       <c r="D77" s="4">
         <v>45637</v>
       </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="6"/>
     </row>
     <row r="78" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A78" s="1">
@@ -4748,9 +4692,9 @@
       <c r="D78" s="4">
         <v>45637</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="6"/>
     </row>
     <row r="79" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A79" s="1">
@@ -4765,9 +4709,9 @@
       <c r="D79" s="4">
         <v>45637</v>
       </c>
-      <c r="E79" s="5"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="6"/>
     </row>
     <row r="80" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A80" s="1">
@@ -4782,9 +4726,9 @@
       <c r="D80" s="4">
         <v>45637</v>
       </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="6"/>
     </row>
     <row r="81" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A81" s="1">
@@ -4799,9 +4743,9 @@
       <c r="D81" s="4">
         <v>45637</v>
       </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="6"/>
     </row>
     <row r="82" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A82" s="1">
@@ -4816,9 +4760,9 @@
       <c r="D82" s="4">
         <v>45637</v>
       </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="6"/>
     </row>
     <row r="83" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A83" s="1">
@@ -4831,9 +4775,9 @@
       <c r="D83" s="4">
         <v>45637</v>
       </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="6"/>
     </row>
     <row r="84" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A84" s="1">
@@ -4848,9 +4792,9 @@
       <c r="D84" s="4">
         <v>45637</v>
       </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="6"/>
     </row>
     <row r="85" s="12" customFormat="1" ht="15" spans="1:7">
       <c r="A85" s="1">
@@ -4865,9 +4809,9 @@
       <c r="D85" s="4">
         <v>45637</v>
       </c>
-      <c r="E85" s="5"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="6"/>
     </row>
     <row r="86" s="12" customFormat="1" ht="30" spans="1:7">
       <c r="A86" s="1">
@@ -4882,9 +4826,9 @@
       <c r="D86" s="4">
         <v>45637</v>
       </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4895,10 +4839,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4937,1043 +4881,647 @@
     </row>
     <row r="2" ht="30" spans="1:7">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>269</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D2" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" ht="15" spans="1:7">
+        <v>45638</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" ht="30" spans="1:7">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>270</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D3" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" ht="60" spans="1:7">
+        <v>45638</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" ht="165" spans="1:7">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D4" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+        <v>45638</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" ht="30" spans="1:7">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3">
-        <v>87</v>
+        <v>272</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="D5" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" ht="30" spans="1:7">
+        <v>45638</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" ht="105" spans="1:7">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="D6" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" ht="15" spans="1:7">
+        <v>45638</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" ht="45" spans="1:7">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D7" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" ht="15" spans="1:7">
+        <v>45638</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" ht="30" spans="1:7">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D8" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+        <v>45638</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" ht="30" spans="1:7">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D9" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+        <v>45638</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" ht="30" spans="1:7">
       <c r="A10" s="1">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" ht="15" spans="1:7">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" ht="15" spans="1:7">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" ht="45" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" ht="30" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
+        <v>45638</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" ht="30" spans="1:7">
       <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+        <v>45638</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" ht="30" spans="1:7">
       <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C14" s="3">
-        <v>0.0689</v>
+        <v>87</v>
       </c>
       <c r="D14" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
+        <v>45638</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" ht="30" spans="1:7">
       <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
+      <c r="C15" s="3">
+        <v>87</v>
       </c>
       <c r="D15" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" ht="30" spans="1:7">
+        <v>45638</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" ht="15" spans="1:7">
       <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" ht="30" spans="1:7">
+        <v>45638</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" ht="15" spans="1:7">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D17" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
+        <v>45638</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" ht="30" spans="1:7">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
+        <v>45638</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" ht="30" spans="1:7">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D19" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" ht="30" spans="1:7">
+        <v>45638</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" ht="45" spans="1:7">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D20" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
+        <v>45638</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" ht="30" spans="1:7">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D21" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
+        <v>45638</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" ht="30" spans="1:7">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.09</v>
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D22" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
+        <v>45638</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" ht="30" spans="1:7">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3">
-        <v>0.78</v>
+        <v>0.0689</v>
       </c>
       <c r="D23" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
+        <v>45638</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" ht="30" spans="1:7">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.108042718416269</v>
+        <v>29</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D24" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
+        <v>45638</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" ht="30" spans="1:7">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="3">
-        <v>-0.46</v>
+        <v>31</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D25" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" ht="30" spans="1:7">
+        <v>45638</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" ht="15" spans="1:7">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.29</v>
+        <v>33</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D26" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
+        <v>45638</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" ht="30" spans="1:7">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="3">
-        <v>-0.09</v>
+        <v>35</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D27" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
+        <v>45638</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" ht="30" spans="1:7">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D28" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
+        <v>45638</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" ht="30" spans="1:7">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D29" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" ht="15" spans="1:7">
+        <v>45638</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" ht="30" spans="1:7">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D30" s="4">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" ht="15" spans="1:7">
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" ht="30" spans="1:7">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.09</v>
       </c>
       <c r="D31" s="4">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" ht="30" spans="1:7">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.78</v>
       </c>
       <c r="D32" s="4">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" ht="30" spans="1:7">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.108042718416269</v>
       </c>
       <c r="D33" s="4">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" ht="30" spans="1:7">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="C34" s="3">
+        <v>-0.46</v>
       </c>
       <c r="D34" s="4">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" ht="15" spans="1:7">
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" ht="30" spans="1:7">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.29</v>
       </c>
       <c r="D35" s="4">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" ht="30" spans="1:7">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>62</v>
+        <v>46</v>
+      </c>
+      <c r="C36" s="3">
+        <v>-0.09</v>
       </c>
       <c r="D36" s="4">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" ht="30" spans="1:7">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D37" s="4">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" ht="75" spans="1:7">
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" ht="30" spans="1:7">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D38" s="4">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" ht="30" spans="1:7">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="3">
-        <v>2691.35</v>
-      </c>
-      <c r="D39" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" ht="15" spans="1:7">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" ht="15" spans="1:7">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" ht="15" spans="1:7">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" ht="30" spans="1:7">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" ht="45" spans="1:7">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" ht="15" spans="1:7">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" ht="15" spans="1:7">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" ht="15" spans="1:7">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" ht="15" spans="1:7">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" ht="30" spans="1:7">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" ht="30" spans="1:7">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" ht="30" spans="1:7">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" ht="165" spans="1:7">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" ht="30" spans="1:7">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" ht="105" spans="1:7">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" ht="45" spans="1:7">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" ht="30" spans="1:7">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" ht="30" spans="1:7">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" ht="30" spans="1:7">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="4">
-        <v>45637</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" customFormat="1"/>
-    <row r="60" customFormat="1"/>
-    <row r="61" customFormat="1"/>
-    <row r="62" customFormat="1"/>
-    <row r="63" customFormat="1"/>
-    <row r="64" customFormat="1"/>
-    <row r="65" customFormat="1"/>
-    <row r="66" customFormat="1"/>
-    <row r="67" customFormat="1"/>
-    <row r="68" customFormat="1"/>
-    <row r="69" customFormat="1"/>
-    <row r="70" customFormat="1"/>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" customFormat="1"/>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
+    <row r="42" customFormat="1"/>
+    <row r="43" customFormat="1"/>
+    <row r="44" customFormat="1"/>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
+    <row r="47" customFormat="1"/>
+    <row r="48" customFormat="1"/>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
+    <row r="51" customFormat="1"/>
+    <row r="52" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5985,14 +5533,15 @@
   <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="85.125" customWidth="1"/>
     <col min="3" max="3" width="44.25" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="135" spans="1:7">
@@ -6008,9 +5557,9 @@
       <c r="D1" s="4">
         <v>45637</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" ht="15" spans="1:7">
       <c r="A2" s="1">
@@ -6025,9 +5574,9 @@
       <c r="D2" s="4">
         <v>45637</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" ht="15" spans="1:7">
       <c r="A3" s="1">
@@ -6042,9 +5591,9 @@
       <c r="D3" s="4">
         <v>45637</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" ht="15" spans="1:7">
       <c r="A4" s="1">
@@ -6059,9 +5608,9 @@
       <c r="D4" s="4">
         <v>45637</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" ht="30" spans="1:7">
       <c r="A5" s="1">
@@ -6076,9 +5625,9 @@
       <c r="D5" s="4">
         <v>45637</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" ht="30" spans="1:7">
       <c r="A6" s="1">
@@ -6093,9 +5642,9 @@
       <c r="D6" s="4">
         <v>45637</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" ht="120" spans="1:7">
       <c r="A7" s="1">
@@ -6110,9 +5659,9 @@
       <c r="D7" s="4">
         <v>45637</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" ht="45" spans="1:7">
       <c r="A8" s="1">
@@ -6127,9 +5676,9 @@
       <c r="D8" s="4">
         <v>45637</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" ht="45" spans="1:7">
       <c r="A9" s="1">
@@ -6144,9 +5693,9 @@
       <c r="D9" s="4">
         <v>45637</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" ht="45" spans="1:7">
       <c r="A10" s="1">
@@ -6161,9 +5710,9 @@
       <c r="D10" s="4">
         <v>45637</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" ht="30" spans="1:7">
       <c r="A11" s="1">
@@ -6178,9 +5727,9 @@
       <c r="D11" s="4">
         <v>45637</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" ht="45" spans="1:7">
       <c r="A12" s="1">
@@ -6195,9 +5744,9 @@
       <c r="D12" s="4">
         <v>45637</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" ht="75" spans="1:7">
       <c r="A13" s="1">
@@ -6212,9 +5761,9 @@
       <c r="D13" s="4">
         <v>45637</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" ht="75" spans="1:7">
       <c r="A14" s="1">
@@ -6229,9 +5778,366 @@
       <c r="D14" s="4">
         <v>45637</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="150" spans="1:7">
+      <c r="A1" s="1">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" ht="150" spans="1:7">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" ht="210" spans="1:7">
+      <c r="A3" s="1">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" ht="300" spans="1:7">
+      <c r="A4" s="1">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" ht="315" spans="1:7">
+      <c r="A5" s="1">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" ht="165" spans="1:7">
+      <c r="A6" s="1">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" ht="270" spans="1:7">
+      <c r="A7" s="1">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" ht="195" spans="1:7">
+      <c r="A8" s="1">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" ht="409.5" spans="1:7">
+      <c r="A9" s="1">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" ht="195" spans="1:7">
+      <c r="A10" s="1">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2691.35</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" ht="105" spans="1:7">
+      <c r="A11" s="1">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" ht="120" spans="1:7">
+      <c r="A12" s="1">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" ht="150" spans="1:7">
+      <c r="A13" s="1">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" ht="210" spans="1:7">
+      <c r="A14" s="1">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" ht="390" spans="1:7">
+      <c r="A15" s="1">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" ht="105" spans="1:7">
+      <c r="A16" s="1">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" ht="120" spans="1:7">
+      <c r="A17" s="1">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" ht="120" spans="1:7">
+      <c r="A18" s="1">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" ht="90" spans="1:7">
+      <c r="A19" s="1">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" ht="315" spans="1:7">
+      <c r="A20" s="1">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="4">
+        <v>45638</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
